--- a/controller/src/main/resources/jxls_templates/additional.xlsx
+++ b/controller/src/main/resources/jxls_templates/additional.xlsx
@@ -67,15 +67,15 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>工号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>合計</t>
     <rPh sb="0" eb="1">
       <t>ソウケイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>卡号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -251,6 +251,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -259,10 +263,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2892,14 +2892,14 @@
         <v>6</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="8"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -2915,7 +2915,7 @@
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="8"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -2931,7 +2931,7 @@
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="8"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -2947,7 +2947,7 @@
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="8"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -2963,7 +2963,7 @@
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="8"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -2979,7 +2979,7 @@
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="8"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -2995,7 +2995,7 @@
       <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="8"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -3011,7 +3011,7 @@
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="8"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -3027,7 +3027,7 @@
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="8"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -3043,7 +3043,7 @@
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="8"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -3059,7 +3059,7 @@
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="8"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -3075,7 +3075,7 @@
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="8"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -3091,7 +3091,7 @@
       <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="13"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="8"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -3107,7 +3107,7 @@
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="8"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -3123,7 +3123,7 @@
       <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="13"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="8"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -3139,7 +3139,7 @@
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="13"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="8"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -3155,7 +3155,7 @@
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="8"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -3171,7 +3171,7 @@
       <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="13"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="8"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -3187,7 +3187,7 @@
       <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="13"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="8"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -3203,7 +3203,7 @@
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="13"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="8"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -3219,7 +3219,7 @@
       <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="13"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="8"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -3235,7 +3235,7 @@
       <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="13"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="8"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -3251,7 +3251,7 @@
       <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="13"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="8"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -3267,7 +3267,7 @@
       <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="13"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="8"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -3283,7 +3283,7 @@
       <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="13"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="8"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -3299,7 +3299,7 @@
       <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="13"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="8"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -3315,7 +3315,7 @@
       <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="13"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="8"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -3331,7 +3331,7 @@
       <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="13"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="8"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -3347,7 +3347,7 @@
       <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="13"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="8"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -3363,7 +3363,7 @@
       <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="13"/>
+      <c r="B31" s="10"/>
       <c r="C31" s="8"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -3379,7 +3379,7 @@
       <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="13"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="8"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -3395,7 +3395,7 @@
       <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="13"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="8"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -3411,7 +3411,7 @@
       <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="13"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="8"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -3427,7 +3427,7 @@
       <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" s="13"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="8"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -3443,7 +3443,7 @@
       <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" s="13"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="8"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -3459,7 +3459,7 @@
       <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" s="13"/>
+      <c r="B37" s="10"/>
       <c r="C37" s="8"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -3475,7 +3475,7 @@
       <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" s="13"/>
+      <c r="B38" s="10"/>
       <c r="C38" s="8"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -3491,7 +3491,7 @@
       <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="B39" s="13"/>
+      <c r="B39" s="10"/>
       <c r="C39" s="8"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -3507,7 +3507,7 @@
       <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="B40" s="13"/>
+      <c r="B40" s="10"/>
       <c r="C40" s="8"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -3523,7 +3523,7 @@
       <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" s="13"/>
+      <c r="B41" s="10"/>
       <c r="C41" s="8"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -3539,7 +3539,7 @@
       <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" s="13"/>
+      <c r="B42" s="10"/>
       <c r="C42" s="8"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -3555,7 +3555,7 @@
       <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43" s="13"/>
+      <c r="B43" s="10"/>
       <c r="C43" s="8"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -3571,7 +3571,7 @@
       <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="13"/>
+      <c r="B44" s="10"/>
       <c r="C44" s="8"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -3587,7 +3587,7 @@
       <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="B45" s="13"/>
+      <c r="B45" s="10"/>
       <c r="C45" s="8"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -3603,7 +3603,7 @@
       <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" s="13"/>
+      <c r="B46" s="10"/>
       <c r="C46" s="8"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
@@ -3619,7 +3619,7 @@
       <c r="A47" s="6">
         <v>46</v>
       </c>
-      <c r="B47" s="13"/>
+      <c r="B47" s="10"/>
       <c r="C47" s="8"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
@@ -3635,7 +3635,7 @@
       <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="B48" s="13"/>
+      <c r="B48" s="10"/>
       <c r="C48" s="8"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
@@ -3651,7 +3651,7 @@
       <c r="A49" s="6">
         <v>48</v>
       </c>
-      <c r="B49" s="13"/>
+      <c r="B49" s="10"/>
       <c r="C49" s="8"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -3667,7 +3667,7 @@
       <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="B50" s="13"/>
+      <c r="B50" s="10"/>
       <c r="C50" s="8"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -3683,7 +3683,7 @@
       <c r="A51" s="6">
         <v>50</v>
       </c>
-      <c r="B51" s="13"/>
+      <c r="B51" s="10"/>
       <c r="C51" s="8"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
@@ -3699,7 +3699,7 @@
       <c r="A52" s="6">
         <v>51</v>
       </c>
-      <c r="B52" s="13"/>
+      <c r="B52" s="10"/>
       <c r="C52" s="8"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
@@ -3715,7 +3715,7 @@
       <c r="A53" s="6">
         <v>52</v>
       </c>
-      <c r="B53" s="13"/>
+      <c r="B53" s="10"/>
       <c r="C53" s="8"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -3731,7 +3731,7 @@
       <c r="A54" s="6">
         <v>53</v>
       </c>
-      <c r="B54" s="13"/>
+      <c r="B54" s="10"/>
       <c r="C54" s="8"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
@@ -3747,7 +3747,7 @@
       <c r="A55" s="6">
         <v>54</v>
       </c>
-      <c r="B55" s="13"/>
+      <c r="B55" s="10"/>
       <c r="C55" s="8"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -3763,7 +3763,7 @@
       <c r="A56" s="6">
         <v>55</v>
       </c>
-      <c r="B56" s="13"/>
+      <c r="B56" s="10"/>
       <c r="C56" s="8"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -3779,7 +3779,7 @@
       <c r="A57" s="6">
         <v>56</v>
       </c>
-      <c r="B57" s="13"/>
+      <c r="B57" s="10"/>
       <c r="C57" s="8"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -3795,7 +3795,7 @@
       <c r="A58" s="6">
         <v>57</v>
       </c>
-      <c r="B58" s="13"/>
+      <c r="B58" s="10"/>
       <c r="C58" s="8"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
@@ -3811,7 +3811,7 @@
       <c r="A59" s="6">
         <v>58</v>
       </c>
-      <c r="B59" s="13"/>
+      <c r="B59" s="10"/>
       <c r="C59" s="8"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -3827,7 +3827,7 @@
       <c r="A60" s="6">
         <v>59</v>
       </c>
-      <c r="B60" s="13"/>
+      <c r="B60" s="10"/>
       <c r="C60" s="8"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
@@ -3843,7 +3843,7 @@
       <c r="A61" s="6">
         <v>60</v>
       </c>
-      <c r="B61" s="13"/>
+      <c r="B61" s="10"/>
       <c r="C61" s="8"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -3859,7 +3859,7 @@
       <c r="A62" s="6">
         <v>61</v>
       </c>
-      <c r="B62" s="13"/>
+      <c r="B62" s="10"/>
       <c r="C62" s="8"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -3875,7 +3875,7 @@
       <c r="A63" s="6">
         <v>62</v>
       </c>
-      <c r="B63" s="13"/>
+      <c r="B63" s="10"/>
       <c r="C63" s="8"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
@@ -3891,7 +3891,7 @@
       <c r="A64" s="6">
         <v>63</v>
       </c>
-      <c r="B64" s="13"/>
+      <c r="B64" s="10"/>
       <c r="C64" s="8"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
@@ -3907,7 +3907,7 @@
       <c r="A65" s="6">
         <v>64</v>
       </c>
-      <c r="B65" s="13"/>
+      <c r="B65" s="10"/>
       <c r="C65" s="8"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -3923,7 +3923,7 @@
       <c r="A66" s="6">
         <v>65</v>
       </c>
-      <c r="B66" s="13"/>
+      <c r="B66" s="10"/>
       <c r="C66" s="8"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
@@ -3939,7 +3939,7 @@
       <c r="A67" s="6">
         <v>66</v>
       </c>
-      <c r="B67" s="13"/>
+      <c r="B67" s="10"/>
       <c r="C67" s="8"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
@@ -3955,7 +3955,7 @@
       <c r="A68" s="6">
         <v>67</v>
       </c>
-      <c r="B68" s="13"/>
+      <c r="B68" s="10"/>
       <c r="C68" s="8"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
@@ -3971,7 +3971,7 @@
       <c r="A69" s="6">
         <v>68</v>
       </c>
-      <c r="B69" s="13"/>
+      <c r="B69" s="10"/>
       <c r="C69" s="8"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
@@ -3987,7 +3987,7 @@
       <c r="A70" s="6">
         <v>69</v>
       </c>
-      <c r="B70" s="13"/>
+      <c r="B70" s="10"/>
       <c r="C70" s="8"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -4003,7 +4003,7 @@
       <c r="A71" s="6">
         <v>70</v>
       </c>
-      <c r="B71" s="13"/>
+      <c r="B71" s="10"/>
       <c r="C71" s="8"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
@@ -4019,7 +4019,7 @@
       <c r="A72" s="6">
         <v>71</v>
       </c>
-      <c r="B72" s="13"/>
+      <c r="B72" s="10"/>
       <c r="C72" s="8"/>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
@@ -4035,7 +4035,7 @@
       <c r="A73" s="6">
         <v>72</v>
       </c>
-      <c r="B73" s="13"/>
+      <c r="B73" s="10"/>
       <c r="C73" s="8"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -4051,7 +4051,7 @@
       <c r="A74" s="6">
         <v>73</v>
       </c>
-      <c r="B74" s="13"/>
+      <c r="B74" s="10"/>
       <c r="C74" s="8"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
@@ -4067,7 +4067,7 @@
       <c r="A75" s="6">
         <v>74</v>
       </c>
-      <c r="B75" s="13"/>
+      <c r="B75" s="10"/>
       <c r="C75" s="8"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -4083,7 +4083,7 @@
       <c r="A76" s="6">
         <v>75</v>
       </c>
-      <c r="B76" s="13"/>
+      <c r="B76" s="10"/>
       <c r="C76" s="8"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -4099,7 +4099,7 @@
       <c r="A77" s="6">
         <v>76</v>
       </c>
-      <c r="B77" s="13"/>
+      <c r="B77" s="10"/>
       <c r="C77" s="8"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
@@ -4115,7 +4115,7 @@
       <c r="A78" s="6">
         <v>77</v>
       </c>
-      <c r="B78" s="13"/>
+      <c r="B78" s="10"/>
       <c r="C78" s="8"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
@@ -4131,7 +4131,7 @@
       <c r="A79" s="6">
         <v>78</v>
       </c>
-      <c r="B79" s="13"/>
+      <c r="B79" s="10"/>
       <c r="C79" s="8"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -4147,7 +4147,7 @@
       <c r="A80" s="6">
         <v>79</v>
       </c>
-      <c r="B80" s="13"/>
+      <c r="B80" s="10"/>
       <c r="C80" s="8"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
@@ -4163,7 +4163,7 @@
       <c r="A81" s="6">
         <v>80</v>
       </c>
-      <c r="B81" s="13"/>
+      <c r="B81" s="10"/>
       <c r="C81" s="8"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
@@ -4179,7 +4179,7 @@
       <c r="A82" s="6">
         <v>81</v>
       </c>
-      <c r="B82" s="13"/>
+      <c r="B82" s="10"/>
       <c r="C82" s="8"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -4195,7 +4195,7 @@
       <c r="A83" s="6">
         <v>82</v>
       </c>
-      <c r="B83" s="13"/>
+      <c r="B83" s="10"/>
       <c r="C83" s="8"/>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
@@ -4211,7 +4211,7 @@
       <c r="A84" s="6">
         <v>83</v>
       </c>
-      <c r="B84" s="13"/>
+      <c r="B84" s="10"/>
       <c r="C84" s="8"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
@@ -4227,7 +4227,7 @@
       <c r="A85" s="6">
         <v>84</v>
       </c>
-      <c r="B85" s="13"/>
+      <c r="B85" s="10"/>
       <c r="C85" s="8"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -4243,7 +4243,7 @@
       <c r="A86" s="6">
         <v>85</v>
       </c>
-      <c r="B86" s="13"/>
+      <c r="B86" s="10"/>
       <c r="C86" s="8"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
@@ -4259,7 +4259,7 @@
       <c r="A87" s="6">
         <v>86</v>
       </c>
-      <c r="B87" s="13"/>
+      <c r="B87" s="10"/>
       <c r="C87" s="8"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
@@ -4275,7 +4275,7 @@
       <c r="A88" s="6">
         <v>87</v>
       </c>
-      <c r="B88" s="13"/>
+      <c r="B88" s="10"/>
       <c r="C88" s="8"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
@@ -4291,7 +4291,7 @@
       <c r="A89" s="6">
         <v>88</v>
       </c>
-      <c r="B89" s="13"/>
+      <c r="B89" s="10"/>
       <c r="C89" s="8"/>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
@@ -4307,7 +4307,7 @@
       <c r="A90" s="6">
         <v>89</v>
       </c>
-      <c r="B90" s="13"/>
+      <c r="B90" s="10"/>
       <c r="C90" s="8"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
@@ -4323,7 +4323,7 @@
       <c r="A91" s="6">
         <v>90</v>
       </c>
-      <c r="B91" s="13"/>
+      <c r="B91" s="10"/>
       <c r="C91" s="8"/>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
@@ -4339,7 +4339,7 @@
       <c r="A92" s="6">
         <v>91</v>
       </c>
-      <c r="B92" s="13"/>
+      <c r="B92" s="10"/>
       <c r="C92" s="8"/>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
@@ -4355,7 +4355,7 @@
       <c r="A93" s="6">
         <v>92</v>
       </c>
-      <c r="B93" s="13"/>
+      <c r="B93" s="10"/>
       <c r="C93" s="8"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -4371,7 +4371,7 @@
       <c r="A94" s="6">
         <v>93</v>
       </c>
-      <c r="B94" s="13"/>
+      <c r="B94" s="10"/>
       <c r="C94" s="8"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
@@ -4387,7 +4387,7 @@
       <c r="A95" s="6">
         <v>94</v>
       </c>
-      <c r="B95" s="13"/>
+      <c r="B95" s="10"/>
       <c r="C95" s="8"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
@@ -4403,7 +4403,7 @@
       <c r="A96" s="6">
         <v>95</v>
       </c>
-      <c r="B96" s="13"/>
+      <c r="B96" s="10"/>
       <c r="C96" s="8"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
@@ -4419,7 +4419,7 @@
       <c r="A97" s="6">
         <v>96</v>
       </c>
-      <c r="B97" s="13"/>
+      <c r="B97" s="10"/>
       <c r="C97" s="8"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
@@ -4435,7 +4435,7 @@
       <c r="A98" s="6">
         <v>97</v>
       </c>
-      <c r="B98" s="13"/>
+      <c r="B98" s="10"/>
       <c r="C98" s="8"/>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
@@ -4451,7 +4451,7 @@
       <c r="A99" s="6">
         <v>98</v>
       </c>
-      <c r="B99" s="13"/>
+      <c r="B99" s="10"/>
       <c r="C99" s="8"/>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
@@ -4467,7 +4467,7 @@
       <c r="A100" s="6">
         <v>99</v>
       </c>
-      <c r="B100" s="13"/>
+      <c r="B100" s="10"/>
       <c r="C100" s="8"/>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
@@ -4483,7 +4483,7 @@
       <c r="A101" s="6">
         <v>100</v>
       </c>
-      <c r="B101" s="13"/>
+      <c r="B101" s="10"/>
       <c r="C101" s="8"/>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
@@ -4499,7 +4499,7 @@
       <c r="A102" s="6">
         <v>101</v>
       </c>
-      <c r="B102" s="13"/>
+      <c r="B102" s="10"/>
       <c r="C102" s="8"/>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
@@ -4515,7 +4515,7 @@
       <c r="A103" s="6">
         <v>102</v>
       </c>
-      <c r="B103" s="13"/>
+      <c r="B103" s="10"/>
       <c r="C103" s="8"/>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
@@ -4531,7 +4531,7 @@
       <c r="A104" s="6">
         <v>103</v>
       </c>
-      <c r="B104" s="13"/>
+      <c r="B104" s="10"/>
       <c r="C104" s="8"/>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
@@ -4547,7 +4547,7 @@
       <c r="A105" s="6">
         <v>104</v>
       </c>
-      <c r="B105" s="13"/>
+      <c r="B105" s="10"/>
       <c r="C105" s="8"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
@@ -4563,7 +4563,7 @@
       <c r="A106" s="6">
         <v>105</v>
       </c>
-      <c r="B106" s="13"/>
+      <c r="B106" s="10"/>
       <c r="C106" s="8"/>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
@@ -4579,7 +4579,7 @@
       <c r="A107" s="6">
         <v>106</v>
       </c>
-      <c r="B107" s="13"/>
+      <c r="B107" s="10"/>
       <c r="C107" s="8"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
@@ -4595,7 +4595,7 @@
       <c r="A108" s="6">
         <v>107</v>
       </c>
-      <c r="B108" s="13"/>
+      <c r="B108" s="10"/>
       <c r="C108" s="8"/>
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
@@ -4611,7 +4611,7 @@
       <c r="A109" s="6">
         <v>108</v>
       </c>
-      <c r="B109" s="13"/>
+      <c r="B109" s="10"/>
       <c r="C109" s="8"/>
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
@@ -4627,7 +4627,7 @@
       <c r="A110" s="6">
         <v>109</v>
       </c>
-      <c r="B110" s="13"/>
+      <c r="B110" s="10"/>
       <c r="C110" s="8"/>
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
@@ -4643,7 +4643,7 @@
       <c r="A111" s="6">
         <v>110</v>
       </c>
-      <c r="B111" s="13"/>
+      <c r="B111" s="10"/>
       <c r="C111" s="8"/>
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
@@ -4659,7 +4659,7 @@
       <c r="A112" s="6">
         <v>111</v>
       </c>
-      <c r="B112" s="13"/>
+      <c r="B112" s="10"/>
       <c r="C112" s="8"/>
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
@@ -4675,7 +4675,7 @@
       <c r="A113" s="6">
         <v>112</v>
       </c>
-      <c r="B113" s="13"/>
+      <c r="B113" s="10"/>
       <c r="C113" s="8"/>
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
@@ -4691,7 +4691,7 @@
       <c r="A114" s="6">
         <v>113</v>
       </c>
-      <c r="B114" s="13"/>
+      <c r="B114" s="10"/>
       <c r="C114" s="8"/>
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
@@ -4707,7 +4707,7 @@
       <c r="A115" s="6">
         <v>114</v>
       </c>
-      <c r="B115" s="13"/>
+      <c r="B115" s="10"/>
       <c r="C115" s="8"/>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
@@ -4723,7 +4723,7 @@
       <c r="A116" s="6">
         <v>115</v>
       </c>
-      <c r="B116" s="13"/>
+      <c r="B116" s="10"/>
       <c r="C116" s="8"/>
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
@@ -4739,7 +4739,7 @@
       <c r="A117" s="6">
         <v>116</v>
       </c>
-      <c r="B117" s="13"/>
+      <c r="B117" s="10"/>
       <c r="C117" s="8"/>
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
@@ -4755,7 +4755,7 @@
       <c r="A118" s="6">
         <v>117</v>
       </c>
-      <c r="B118" s="13"/>
+      <c r="B118" s="10"/>
       <c r="C118" s="8"/>
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
@@ -4771,7 +4771,7 @@
       <c r="A119" s="6">
         <v>118</v>
       </c>
-      <c r="B119" s="13"/>
+      <c r="B119" s="10"/>
       <c r="C119" s="8"/>
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
@@ -4787,7 +4787,7 @@
       <c r="A120" s="6">
         <v>119</v>
       </c>
-      <c r="B120" s="13"/>
+      <c r="B120" s="10"/>
       <c r="C120" s="8"/>
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
@@ -4803,7 +4803,7 @@
       <c r="A121" s="6">
         <v>120</v>
       </c>
-      <c r="B121" s="13"/>
+      <c r="B121" s="10"/>
       <c r="C121" s="8"/>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
@@ -4819,7 +4819,7 @@
       <c r="A122" s="6">
         <v>121</v>
       </c>
-      <c r="B122" s="13"/>
+      <c r="B122" s="10"/>
       <c r="C122" s="8"/>
       <c r="D122" s="6"/>
       <c r="E122" s="6"/>
@@ -4835,7 +4835,7 @@
       <c r="A123" s="6">
         <v>122</v>
       </c>
-      <c r="B123" s="13"/>
+      <c r="B123" s="10"/>
       <c r="C123" s="8"/>
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
@@ -4851,7 +4851,7 @@
       <c r="A124" s="6">
         <v>123</v>
       </c>
-      <c r="B124" s="13"/>
+      <c r="B124" s="10"/>
       <c r="C124" s="8"/>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
@@ -4867,7 +4867,7 @@
       <c r="A125" s="6">
         <v>124</v>
       </c>
-      <c r="B125" s="13"/>
+      <c r="B125" s="10"/>
       <c r="C125" s="8"/>
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
@@ -4883,7 +4883,7 @@
       <c r="A126" s="6">
         <v>125</v>
       </c>
-      <c r="B126" s="13"/>
+      <c r="B126" s="10"/>
       <c r="C126" s="8"/>
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
@@ -4899,7 +4899,7 @@
       <c r="A127" s="6">
         <v>126</v>
       </c>
-      <c r="B127" s="13"/>
+      <c r="B127" s="10"/>
       <c r="C127" s="8"/>
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
@@ -4915,7 +4915,7 @@
       <c r="A128" s="6">
         <v>127</v>
       </c>
-      <c r="B128" s="13"/>
+      <c r="B128" s="10"/>
       <c r="C128" s="8"/>
       <c r="D128" s="6"/>
       <c r="E128" s="6"/>
@@ -4931,7 +4931,7 @@
       <c r="A129" s="6">
         <v>128</v>
       </c>
-      <c r="B129" s="13"/>
+      <c r="B129" s="10"/>
       <c r="C129" s="8"/>
       <c r="D129" s="6"/>
       <c r="E129" s="6"/>
@@ -4947,7 +4947,7 @@
       <c r="A130" s="6">
         <v>129</v>
       </c>
-      <c r="B130" s="13"/>
+      <c r="B130" s="10"/>
       <c r="C130" s="8"/>
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
@@ -4963,7 +4963,7 @@
       <c r="A131" s="6">
         <v>130</v>
       </c>
-      <c r="B131" s="13"/>
+      <c r="B131" s="10"/>
       <c r="C131" s="8"/>
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
@@ -4979,7 +4979,7 @@
       <c r="A132" s="6">
         <v>131</v>
       </c>
-      <c r="B132" s="13"/>
+      <c r="B132" s="10"/>
       <c r="C132" s="8"/>
       <c r="D132" s="6"/>
       <c r="E132" s="6"/>
@@ -4995,7 +4995,7 @@
       <c r="A133" s="6">
         <v>132</v>
       </c>
-      <c r="B133" s="13"/>
+      <c r="B133" s="10"/>
       <c r="C133" s="8"/>
       <c r="D133" s="6"/>
       <c r="E133" s="6"/>
@@ -5011,7 +5011,7 @@
       <c r="A134" s="6">
         <v>133</v>
       </c>
-      <c r="B134" s="13"/>
+      <c r="B134" s="10"/>
       <c r="C134" s="8"/>
       <c r="D134" s="6"/>
       <c r="E134" s="6"/>
@@ -5027,7 +5027,7 @@
       <c r="A135" s="6">
         <v>134</v>
       </c>
-      <c r="B135" s="13"/>
+      <c r="B135" s="10"/>
       <c r="C135" s="8"/>
       <c r="D135" s="6"/>
       <c r="E135" s="6"/>
@@ -5043,7 +5043,7 @@
       <c r="A136" s="6">
         <v>135</v>
       </c>
-      <c r="B136" s="13"/>
+      <c r="B136" s="10"/>
       <c r="C136" s="8"/>
       <c r="D136" s="6"/>
       <c r="E136" s="6"/>
@@ -5059,7 +5059,7 @@
       <c r="A137" s="6">
         <v>136</v>
       </c>
-      <c r="B137" s="13"/>
+      <c r="B137" s="10"/>
       <c r="C137" s="8"/>
       <c r="D137" s="6"/>
       <c r="E137" s="6"/>
@@ -5075,7 +5075,7 @@
       <c r="A138" s="6">
         <v>137</v>
       </c>
-      <c r="B138" s="13"/>
+      <c r="B138" s="10"/>
       <c r="C138" s="8"/>
       <c r="D138" s="6"/>
       <c r="E138" s="6"/>
@@ -5091,7 +5091,7 @@
       <c r="A139" s="6">
         <v>138</v>
       </c>
-      <c r="B139" s="13"/>
+      <c r="B139" s="10"/>
       <c r="C139" s="8"/>
       <c r="D139" s="6"/>
       <c r="E139" s="6"/>
@@ -5107,7 +5107,7 @@
       <c r="A140" s="6">
         <v>139</v>
       </c>
-      <c r="B140" s="13"/>
+      <c r="B140" s="10"/>
       <c r="C140" s="8"/>
       <c r="D140" s="6"/>
       <c r="E140" s="6"/>
@@ -5123,7 +5123,7 @@
       <c r="A141" s="6">
         <v>140</v>
       </c>
-      <c r="B141" s="13"/>
+      <c r="B141" s="10"/>
       <c r="C141" s="8"/>
       <c r="D141" s="6"/>
       <c r="E141" s="6"/>
@@ -5139,7 +5139,7 @@
       <c r="A142" s="6">
         <v>141</v>
       </c>
-      <c r="B142" s="13"/>
+      <c r="B142" s="10"/>
       <c r="C142" s="8"/>
       <c r="D142" s="6"/>
       <c r="E142" s="6"/>
@@ -5155,7 +5155,7 @@
       <c r="A143" s="6">
         <v>142</v>
       </c>
-      <c r="B143" s="13"/>
+      <c r="B143" s="10"/>
       <c r="C143" s="8"/>
       <c r="D143" s="6"/>
       <c r="E143" s="6"/>
@@ -5171,7 +5171,7 @@
       <c r="A144" s="6">
         <v>143</v>
       </c>
-      <c r="B144" s="13"/>
+      <c r="B144" s="10"/>
       <c r="C144" s="8"/>
       <c r="D144" s="6"/>
       <c r="E144" s="6"/>
@@ -5187,7 +5187,7 @@
       <c r="A145" s="6">
         <v>144</v>
       </c>
-      <c r="B145" s="13"/>
+      <c r="B145" s="10"/>
       <c r="C145" s="8"/>
       <c r="D145" s="6"/>
       <c r="E145" s="6"/>
@@ -5203,7 +5203,7 @@
       <c r="A146" s="6">
         <v>145</v>
       </c>
-      <c r="B146" s="13"/>
+      <c r="B146" s="10"/>
       <c r="C146" s="8"/>
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
@@ -5219,7 +5219,7 @@
       <c r="A147" s="6">
         <v>146</v>
       </c>
-      <c r="B147" s="13"/>
+      <c r="B147" s="10"/>
       <c r="C147" s="8"/>
       <c r="D147" s="6"/>
       <c r="E147" s="6"/>
@@ -5235,7 +5235,7 @@
       <c r="A148" s="6">
         <v>147</v>
       </c>
-      <c r="B148" s="13"/>
+      <c r="B148" s="10"/>
       <c r="C148" s="8"/>
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
@@ -5251,7 +5251,7 @@
       <c r="A149" s="6">
         <v>148</v>
       </c>
-      <c r="B149" s="13"/>
+      <c r="B149" s="10"/>
       <c r="C149" s="8"/>
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
@@ -5267,7 +5267,7 @@
       <c r="A150" s="6">
         <v>149</v>
       </c>
-      <c r="B150" s="13"/>
+      <c r="B150" s="10"/>
       <c r="C150" s="8"/>
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
@@ -5283,7 +5283,7 @@
       <c r="A151" s="6">
         <v>150</v>
       </c>
-      <c r="B151" s="13"/>
+      <c r="B151" s="10"/>
       <c r="C151" s="8"/>
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
@@ -5299,7 +5299,7 @@
       <c r="A152" s="6">
         <v>151</v>
       </c>
-      <c r="B152" s="13"/>
+      <c r="B152" s="10"/>
       <c r="C152" s="8"/>
       <c r="D152" s="6"/>
       <c r="E152" s="6"/>
@@ -5315,7 +5315,7 @@
       <c r="A153" s="6">
         <v>152</v>
       </c>
-      <c r="B153" s="13"/>
+      <c r="B153" s="10"/>
       <c r="C153" s="8"/>
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
@@ -5331,7 +5331,7 @@
       <c r="A154" s="6">
         <v>153</v>
       </c>
-      <c r="B154" s="13"/>
+      <c r="B154" s="10"/>
       <c r="C154" s="8"/>
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
@@ -5347,7 +5347,7 @@
       <c r="A155" s="6">
         <v>154</v>
       </c>
-      <c r="B155" s="13"/>
+      <c r="B155" s="10"/>
       <c r="C155" s="8"/>
       <c r="D155" s="6"/>
       <c r="E155" s="6"/>
@@ -5363,7 +5363,7 @@
       <c r="A156" s="6">
         <v>155</v>
       </c>
-      <c r="B156" s="13"/>
+      <c r="B156" s="10"/>
       <c r="C156" s="8"/>
       <c r="D156" s="6"/>
       <c r="E156" s="6"/>
@@ -5379,7 +5379,7 @@
       <c r="A157" s="6">
         <v>156</v>
       </c>
-      <c r="B157" s="13"/>
+      <c r="B157" s="10"/>
       <c r="C157" s="8"/>
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
@@ -5395,7 +5395,7 @@
       <c r="A158" s="6">
         <v>157</v>
       </c>
-      <c r="B158" s="13"/>
+      <c r="B158" s="10"/>
       <c r="C158" s="8"/>
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
@@ -5411,7 +5411,7 @@
       <c r="A159" s="6">
         <v>158</v>
       </c>
-      <c r="B159" s="13"/>
+      <c r="B159" s="10"/>
       <c r="C159" s="8"/>
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
@@ -5427,7 +5427,7 @@
       <c r="A160" s="6">
         <v>159</v>
       </c>
-      <c r="B160" s="13"/>
+      <c r="B160" s="10"/>
       <c r="C160" s="8"/>
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
@@ -5443,7 +5443,7 @@
       <c r="A161" s="6">
         <v>160</v>
       </c>
-      <c r="B161" s="13"/>
+      <c r="B161" s="10"/>
       <c r="C161" s="8"/>
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
@@ -5459,7 +5459,7 @@
       <c r="A162" s="6">
         <v>161</v>
       </c>
-      <c r="B162" s="13"/>
+      <c r="B162" s="10"/>
       <c r="C162" s="8"/>
       <c r="D162" s="6"/>
       <c r="E162" s="6"/>
@@ -5475,7 +5475,7 @@
       <c r="A163" s="6">
         <v>162</v>
       </c>
-      <c r="B163" s="13"/>
+      <c r="B163" s="10"/>
       <c r="C163" s="8"/>
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
@@ -5491,7 +5491,7 @@
       <c r="A164" s="6">
         <v>163</v>
       </c>
-      <c r="B164" s="13"/>
+      <c r="B164" s="10"/>
       <c r="C164" s="8"/>
       <c r="D164" s="6"/>
       <c r="E164" s="6"/>
@@ -5507,7 +5507,7 @@
       <c r="A165" s="6">
         <v>164</v>
       </c>
-      <c r="B165" s="13"/>
+      <c r="B165" s="10"/>
       <c r="C165" s="8"/>
       <c r="D165" s="6"/>
       <c r="E165" s="6"/>
@@ -5523,7 +5523,7 @@
       <c r="A166" s="6">
         <v>165</v>
       </c>
-      <c r="B166" s="13"/>
+      <c r="B166" s="10"/>
       <c r="C166" s="8"/>
       <c r="D166" s="6"/>
       <c r="E166" s="6"/>
@@ -5539,7 +5539,7 @@
       <c r="A167" s="6">
         <v>166</v>
       </c>
-      <c r="B167" s="13"/>
+      <c r="B167" s="10"/>
       <c r="C167" s="8"/>
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
@@ -5555,7 +5555,7 @@
       <c r="A168" s="6">
         <v>167</v>
       </c>
-      <c r="B168" s="13"/>
+      <c r="B168" s="10"/>
       <c r="C168" s="8"/>
       <c r="D168" s="6"/>
       <c r="E168" s="6"/>
@@ -5571,7 +5571,7 @@
       <c r="A169" s="6">
         <v>168</v>
       </c>
-      <c r="B169" s="13"/>
+      <c r="B169" s="10"/>
       <c r="C169" s="8"/>
       <c r="D169" s="6"/>
       <c r="E169" s="6"/>
@@ -5587,7 +5587,7 @@
       <c r="A170" s="6">
         <v>169</v>
       </c>
-      <c r="B170" s="13"/>
+      <c r="B170" s="10"/>
       <c r="C170" s="8"/>
       <c r="D170" s="6"/>
       <c r="E170" s="6"/>
@@ -5603,7 +5603,7 @@
       <c r="A171" s="6">
         <v>170</v>
       </c>
-      <c r="B171" s="13"/>
+      <c r="B171" s="10"/>
       <c r="C171" s="8"/>
       <c r="D171" s="6"/>
       <c r="E171" s="6"/>
@@ -5619,7 +5619,7 @@
       <c r="A172" s="6">
         <v>171</v>
       </c>
-      <c r="B172" s="13"/>
+      <c r="B172" s="10"/>
       <c r="C172" s="8"/>
       <c r="D172" s="6"/>
       <c r="E172" s="6"/>
@@ -5635,7 +5635,7 @@
       <c r="A173" s="6">
         <v>172</v>
       </c>
-      <c r="B173" s="13"/>
+      <c r="B173" s="10"/>
       <c r="C173" s="8"/>
       <c r="D173" s="6"/>
       <c r="E173" s="6"/>
@@ -5651,7 +5651,7 @@
       <c r="A174" s="6">
         <v>173</v>
       </c>
-      <c r="B174" s="13"/>
+      <c r="B174" s="10"/>
       <c r="C174" s="8"/>
       <c r="D174" s="6"/>
       <c r="E174" s="6"/>
@@ -5667,7 +5667,7 @@
       <c r="A175" s="6">
         <v>174</v>
       </c>
-      <c r="B175" s="13"/>
+      <c r="B175" s="10"/>
       <c r="C175" s="8"/>
       <c r="D175" s="6"/>
       <c r="E175" s="6"/>
@@ -5683,7 +5683,7 @@
       <c r="A176" s="6">
         <v>175</v>
       </c>
-      <c r="B176" s="13"/>
+      <c r="B176" s="10"/>
       <c r="C176" s="8"/>
       <c r="D176" s="6"/>
       <c r="E176" s="6"/>
@@ -5699,7 +5699,7 @@
       <c r="A177" s="6">
         <v>176</v>
       </c>
-      <c r="B177" s="13"/>
+      <c r="B177" s="10"/>
       <c r="C177" s="8"/>
       <c r="D177" s="6"/>
       <c r="E177" s="6"/>
@@ -5715,7 +5715,7 @@
       <c r="A178" s="6">
         <v>177</v>
       </c>
-      <c r="B178" s="13"/>
+      <c r="B178" s="10"/>
       <c r="C178" s="8"/>
       <c r="D178" s="6"/>
       <c r="E178" s="6"/>
@@ -5731,7 +5731,7 @@
       <c r="A179" s="6">
         <v>178</v>
       </c>
-      <c r="B179" s="13"/>
+      <c r="B179" s="10"/>
       <c r="C179" s="8"/>
       <c r="D179" s="6"/>
       <c r="E179" s="6"/>
@@ -5747,7 +5747,7 @@
       <c r="A180" s="6">
         <v>179</v>
       </c>
-      <c r="B180" s="13"/>
+      <c r="B180" s="10"/>
       <c r="C180" s="8"/>
       <c r="D180" s="6"/>
       <c r="E180" s="6"/>
@@ -5763,7 +5763,7 @@
       <c r="A181" s="6">
         <v>180</v>
       </c>
-      <c r="B181" s="13"/>
+      <c r="B181" s="10"/>
       <c r="C181" s="8"/>
       <c r="D181" s="6"/>
       <c r="E181" s="6"/>
@@ -5779,7 +5779,7 @@
       <c r="A182" s="6">
         <v>181</v>
       </c>
-      <c r="B182" s="13"/>
+      <c r="B182" s="10"/>
       <c r="C182" s="8"/>
       <c r="D182" s="6"/>
       <c r="E182" s="6"/>
@@ -5795,7 +5795,7 @@
       <c r="A183" s="6">
         <v>182</v>
       </c>
-      <c r="B183" s="13"/>
+      <c r="B183" s="10"/>
       <c r="C183" s="8"/>
       <c r="D183" s="6"/>
       <c r="E183" s="6"/>
@@ -5811,7 +5811,7 @@
       <c r="A184" s="6">
         <v>183</v>
       </c>
-      <c r="B184" s="13"/>
+      <c r="B184" s="10"/>
       <c r="C184" s="8"/>
       <c r="D184" s="6"/>
       <c r="E184" s="6"/>
@@ -5827,7 +5827,7 @@
       <c r="A185" s="6">
         <v>184</v>
       </c>
-      <c r="B185" s="13"/>
+      <c r="B185" s="10"/>
       <c r="C185" s="8"/>
       <c r="D185" s="6"/>
       <c r="E185" s="6"/>
@@ -5843,7 +5843,7 @@
       <c r="A186" s="6">
         <v>185</v>
       </c>
-      <c r="B186" s="13"/>
+      <c r="B186" s="10"/>
       <c r="C186" s="8"/>
       <c r="D186" s="6"/>
       <c r="E186" s="6"/>
@@ -5859,7 +5859,7 @@
       <c r="A187" s="6">
         <v>186</v>
       </c>
-      <c r="B187" s="13"/>
+      <c r="B187" s="10"/>
       <c r="C187" s="8"/>
       <c r="D187" s="6"/>
       <c r="E187" s="6"/>
@@ -5875,7 +5875,7 @@
       <c r="A188" s="6">
         <v>187</v>
       </c>
-      <c r="B188" s="13"/>
+      <c r="B188" s="10"/>
       <c r="C188" s="8"/>
       <c r="D188" s="6"/>
       <c r="E188" s="6"/>
@@ -5891,7 +5891,7 @@
       <c r="A189" s="6">
         <v>188</v>
       </c>
-      <c r="B189" s="13"/>
+      <c r="B189" s="10"/>
       <c r="C189" s="8"/>
       <c r="D189" s="6"/>
       <c r="E189" s="6"/>
@@ -5907,7 +5907,7 @@
       <c r="A190" s="6">
         <v>189</v>
       </c>
-      <c r="B190" s="13"/>
+      <c r="B190" s="10"/>
       <c r="C190" s="8"/>
       <c r="D190" s="6"/>
       <c r="E190" s="6"/>
@@ -5923,7 +5923,7 @@
       <c r="A191" s="6">
         <v>190</v>
       </c>
-      <c r="B191" s="13"/>
+      <c r="B191" s="10"/>
       <c r="C191" s="8"/>
       <c r="D191" s="6"/>
       <c r="E191" s="6"/>
@@ -5939,7 +5939,7 @@
       <c r="A192" s="6">
         <v>191</v>
       </c>
-      <c r="B192" s="13"/>
+      <c r="B192" s="10"/>
       <c r="C192" s="8"/>
       <c r="D192" s="6"/>
       <c r="E192" s="6"/>
@@ -5955,7 +5955,7 @@
       <c r="A193" s="6">
         <v>192</v>
       </c>
-      <c r="B193" s="13"/>
+      <c r="B193" s="10"/>
       <c r="C193" s="8"/>
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
@@ -5971,7 +5971,7 @@
       <c r="A194" s="6">
         <v>193</v>
       </c>
-      <c r="B194" s="13"/>
+      <c r="B194" s="10"/>
       <c r="C194" s="8"/>
       <c r="D194" s="6"/>
       <c r="E194" s="6"/>
@@ -5987,7 +5987,7 @@
       <c r="A195" s="6">
         <v>194</v>
       </c>
-      <c r="B195" s="13"/>
+      <c r="B195" s="10"/>
       <c r="C195" s="8"/>
       <c r="D195" s="6"/>
       <c r="E195" s="6"/>
@@ -6003,7 +6003,7 @@
       <c r="A196" s="6">
         <v>195</v>
       </c>
-      <c r="B196" s="13"/>
+      <c r="B196" s="10"/>
       <c r="C196" s="8"/>
       <c r="D196" s="6"/>
       <c r="E196" s="6"/>
@@ -6019,7 +6019,7 @@
       <c r="A197" s="6">
         <v>196</v>
       </c>
-      <c r="B197" s="13"/>
+      <c r="B197" s="10"/>
       <c r="C197" s="8"/>
       <c r="D197" s="6"/>
       <c r="E197" s="6"/>
@@ -6035,7 +6035,7 @@
       <c r="A198" s="6">
         <v>197</v>
       </c>
-      <c r="B198" s="13"/>
+      <c r="B198" s="10"/>
       <c r="C198" s="8"/>
       <c r="D198" s="6"/>
       <c r="E198" s="6"/>
@@ -6051,7 +6051,7 @@
       <c r="A199" s="6">
         <v>198</v>
       </c>
-      <c r="B199" s="13"/>
+      <c r="B199" s="10"/>
       <c r="C199" s="8"/>
       <c r="D199" s="6"/>
       <c r="E199" s="6"/>
@@ -6067,7 +6067,7 @@
       <c r="A200" s="6">
         <v>199</v>
       </c>
-      <c r="B200" s="13"/>
+      <c r="B200" s="10"/>
       <c r="C200" s="8"/>
       <c r="D200" s="6"/>
       <c r="E200" s="6"/>
@@ -6083,7 +6083,7 @@
       <c r="A201" s="6">
         <v>200</v>
       </c>
-      <c r="B201" s="13"/>
+      <c r="B201" s="10"/>
       <c r="C201" s="8"/>
       <c r="D201" s="6"/>
       <c r="E201" s="6"/>
@@ -6099,7 +6099,7 @@
       <c r="A202" s="6">
         <v>201</v>
       </c>
-      <c r="B202" s="13"/>
+      <c r="B202" s="10"/>
       <c r="C202" s="8"/>
       <c r="D202" s="6"/>
       <c r="E202" s="6"/>
@@ -6115,7 +6115,7 @@
       <c r="A203" s="6">
         <v>202</v>
       </c>
-      <c r="B203" s="13"/>
+      <c r="B203" s="10"/>
       <c r="C203" s="8"/>
       <c r="D203" s="6"/>
       <c r="E203" s="6"/>
@@ -6131,7 +6131,7 @@
       <c r="A204" s="6">
         <v>203</v>
       </c>
-      <c r="B204" s="13"/>
+      <c r="B204" s="10"/>
       <c r="C204" s="8"/>
       <c r="D204" s="6"/>
       <c r="E204" s="6"/>
@@ -6147,7 +6147,7 @@
       <c r="A205" s="6">
         <v>204</v>
       </c>
-      <c r="B205" s="13"/>
+      <c r="B205" s="10"/>
       <c r="C205" s="8"/>
       <c r="D205" s="6"/>
       <c r="E205" s="6"/>
@@ -6163,7 +6163,7 @@
       <c r="A206" s="6">
         <v>205</v>
       </c>
-      <c r="B206" s="13"/>
+      <c r="B206" s="10"/>
       <c r="C206" s="8"/>
       <c r="D206" s="6"/>
       <c r="E206" s="6"/>
@@ -6179,7 +6179,7 @@
       <c r="A207" s="6">
         <v>206</v>
       </c>
-      <c r="B207" s="13"/>
+      <c r="B207" s="10"/>
       <c r="C207" s="8"/>
       <c r="D207" s="6"/>
       <c r="E207" s="6"/>
@@ -6195,7 +6195,7 @@
       <c r="A208" s="6">
         <v>207</v>
       </c>
-      <c r="B208" s="13"/>
+      <c r="B208" s="10"/>
       <c r="C208" s="8"/>
       <c r="D208" s="6"/>
       <c r="E208" s="6"/>
@@ -6211,7 +6211,7 @@
       <c r="A209" s="6">
         <v>208</v>
       </c>
-      <c r="B209" s="13"/>
+      <c r="B209" s="10"/>
       <c r="C209" s="8"/>
       <c r="D209" s="6"/>
       <c r="E209" s="6"/>
@@ -6227,7 +6227,7 @@
       <c r="A210" s="6">
         <v>209</v>
       </c>
-      <c r="B210" s="13"/>
+      <c r="B210" s="10"/>
       <c r="C210" s="8"/>
       <c r="D210" s="6"/>
       <c r="E210" s="6"/>
@@ -6243,7 +6243,7 @@
       <c r="A211" s="6">
         <v>210</v>
       </c>
-      <c r="B211" s="13"/>
+      <c r="B211" s="10"/>
       <c r="C211" s="8"/>
       <c r="D211" s="6"/>
       <c r="E211" s="6"/>
@@ -6259,7 +6259,7 @@
       <c r="A212" s="6">
         <v>211</v>
       </c>
-      <c r="B212" s="13"/>
+      <c r="B212" s="10"/>
       <c r="C212" s="8"/>
       <c r="D212" s="6"/>
       <c r="E212" s="6"/>
@@ -6275,7 +6275,7 @@
       <c r="A213" s="6">
         <v>212</v>
       </c>
-      <c r="B213" s="13"/>
+      <c r="B213" s="10"/>
       <c r="C213" s="8"/>
       <c r="D213" s="6"/>
       <c r="E213" s="6"/>
@@ -6291,7 +6291,7 @@
       <c r="A214" s="6">
         <v>213</v>
       </c>
-      <c r="B214" s="13"/>
+      <c r="B214" s="10"/>
       <c r="C214" s="8"/>
       <c r="D214" s="6"/>
       <c r="E214" s="6"/>
@@ -6307,7 +6307,7 @@
       <c r="A215" s="6">
         <v>214</v>
       </c>
-      <c r="B215" s="13"/>
+      <c r="B215" s="10"/>
       <c r="C215" s="8"/>
       <c r="D215" s="6"/>
       <c r="E215" s="6"/>
@@ -6323,7 +6323,7 @@
       <c r="A216" s="6">
         <v>215</v>
       </c>
-      <c r="B216" s="13"/>
+      <c r="B216" s="10"/>
       <c r="C216" s="8"/>
       <c r="D216" s="6"/>
       <c r="E216" s="6"/>
@@ -6339,7 +6339,7 @@
       <c r="A217" s="6">
         <v>216</v>
       </c>
-      <c r="B217" s="13"/>
+      <c r="B217" s="10"/>
       <c r="C217" s="8"/>
       <c r="D217" s="6"/>
       <c r="E217" s="6"/>
@@ -6355,7 +6355,7 @@
       <c r="A218" s="6">
         <v>217</v>
       </c>
-      <c r="B218" s="13"/>
+      <c r="B218" s="10"/>
       <c r="C218" s="8"/>
       <c r="D218" s="6"/>
       <c r="E218" s="6"/>
@@ -6371,7 +6371,7 @@
       <c r="A219" s="6">
         <v>218</v>
       </c>
-      <c r="B219" s="13"/>
+      <c r="B219" s="10"/>
       <c r="C219" s="8"/>
       <c r="D219" s="6"/>
       <c r="E219" s="6"/>
@@ -6387,7 +6387,7 @@
       <c r="A220" s="6">
         <v>219</v>
       </c>
-      <c r="B220" s="13"/>
+      <c r="B220" s="10"/>
       <c r="C220" s="8"/>
       <c r="D220" s="6"/>
       <c r="E220" s="6"/>
@@ -6403,7 +6403,7 @@
       <c r="A221" s="6">
         <v>220</v>
       </c>
-      <c r="B221" s="13"/>
+      <c r="B221" s="10"/>
       <c r="C221" s="8"/>
       <c r="D221" s="6"/>
       <c r="E221" s="6"/>
@@ -6419,7 +6419,7 @@
       <c r="A222" s="6">
         <v>221</v>
       </c>
-      <c r="B222" s="13"/>
+      <c r="B222" s="10"/>
       <c r="C222" s="8"/>
       <c r="D222" s="6"/>
       <c r="E222" s="6"/>
@@ -6435,7 +6435,7 @@
       <c r="A223" s="6">
         <v>222</v>
       </c>
-      <c r="B223" s="13"/>
+      <c r="B223" s="10"/>
       <c r="C223" s="8"/>
       <c r="D223" s="6"/>
       <c r="E223" s="6"/>
@@ -6451,7 +6451,7 @@
       <c r="A224" s="6">
         <v>223</v>
       </c>
-      <c r="B224" s="13"/>
+      <c r="B224" s="10"/>
       <c r="C224" s="8"/>
       <c r="D224" s="6"/>
       <c r="E224" s="6"/>
@@ -6467,7 +6467,7 @@
       <c r="A225" s="6">
         <v>224</v>
       </c>
-      <c r="B225" s="13"/>
+      <c r="B225" s="10"/>
       <c r="C225" s="8"/>
       <c r="D225" s="6"/>
       <c r="E225" s="6"/>
@@ -6483,7 +6483,7 @@
       <c r="A226" s="6">
         <v>225</v>
       </c>
-      <c r="B226" s="13"/>
+      <c r="B226" s="10"/>
       <c r="C226" s="8"/>
       <c r="D226" s="6"/>
       <c r="E226" s="6"/>
@@ -6499,7 +6499,7 @@
       <c r="A227" s="6">
         <v>226</v>
       </c>
-      <c r="B227" s="13"/>
+      <c r="B227" s="10"/>
       <c r="C227" s="8"/>
       <c r="D227" s="6"/>
       <c r="E227" s="6"/>
@@ -6515,7 +6515,7 @@
       <c r="A228" s="6">
         <v>227</v>
       </c>
-      <c r="B228" s="13"/>
+      <c r="B228" s="10"/>
       <c r="C228" s="8"/>
       <c r="D228" s="6"/>
       <c r="E228" s="6"/>
@@ -6531,7 +6531,7 @@
       <c r="A229" s="6">
         <v>228</v>
       </c>
-      <c r="B229" s="13"/>
+      <c r="B229" s="10"/>
       <c r="C229" s="8"/>
       <c r="D229" s="6"/>
       <c r="E229" s="6"/>
@@ -6547,7 +6547,7 @@
       <c r="A230" s="6">
         <v>229</v>
       </c>
-      <c r="B230" s="13"/>
+      <c r="B230" s="10"/>
       <c r="C230" s="8"/>
       <c r="D230" s="6"/>
       <c r="E230" s="6"/>
@@ -6563,7 +6563,7 @@
       <c r="A231" s="6">
         <v>230</v>
       </c>
-      <c r="B231" s="13"/>
+      <c r="B231" s="10"/>
       <c r="C231" s="8"/>
       <c r="D231" s="6"/>
       <c r="E231" s="6"/>
@@ -6579,7 +6579,7 @@
       <c r="A232" s="6">
         <v>231</v>
       </c>
-      <c r="B232" s="13"/>
+      <c r="B232" s="10"/>
       <c r="C232" s="8"/>
       <c r="D232" s="6"/>
       <c r="E232" s="6"/>
@@ -6595,7 +6595,7 @@
       <c r="A233" s="6">
         <v>232</v>
       </c>
-      <c r="B233" s="13"/>
+      <c r="B233" s="10"/>
       <c r="C233" s="8"/>
       <c r="D233" s="6"/>
       <c r="E233" s="6"/>
@@ -6611,7 +6611,7 @@
       <c r="A234" s="6">
         <v>233</v>
       </c>
-      <c r="B234" s="13"/>
+      <c r="B234" s="10"/>
       <c r="C234" s="8"/>
       <c r="D234" s="6"/>
       <c r="E234" s="6"/>
@@ -6627,7 +6627,7 @@
       <c r="A235" s="6">
         <v>234</v>
       </c>
-      <c r="B235" s="13"/>
+      <c r="B235" s="10"/>
       <c r="C235" s="8"/>
       <c r="D235" s="6"/>
       <c r="E235" s="6"/>
@@ -6643,7 +6643,7 @@
       <c r="A236" s="6">
         <v>235</v>
       </c>
-      <c r="B236" s="13"/>
+      <c r="B236" s="10"/>
       <c r="C236" s="8"/>
       <c r="D236" s="6"/>
       <c r="E236" s="6"/>
@@ -6659,7 +6659,7 @@
       <c r="A237" s="6">
         <v>236</v>
       </c>
-      <c r="B237" s="13"/>
+      <c r="B237" s="10"/>
       <c r="C237" s="8"/>
       <c r="D237" s="6"/>
       <c r="E237" s="6"/>
@@ -6675,7 +6675,7 @@
       <c r="A238" s="6">
         <v>237</v>
       </c>
-      <c r="B238" s="13"/>
+      <c r="B238" s="10"/>
       <c r="C238" s="8"/>
       <c r="D238" s="6"/>
       <c r="E238" s="6"/>
@@ -6691,7 +6691,7 @@
       <c r="A239" s="6">
         <v>238</v>
       </c>
-      <c r="B239" s="13"/>
+      <c r="B239" s="10"/>
       <c r="C239" s="8"/>
       <c r="D239" s="6"/>
       <c r="E239" s="6"/>
@@ -6707,7 +6707,7 @@
       <c r="A240" s="6">
         <v>239</v>
       </c>
-      <c r="B240" s="13"/>
+      <c r="B240" s="10"/>
       <c r="C240" s="8"/>
       <c r="D240" s="6"/>
       <c r="E240" s="6"/>
@@ -6723,7 +6723,7 @@
       <c r="A241" s="6">
         <v>240</v>
       </c>
-      <c r="B241" s="13"/>
+      <c r="B241" s="10"/>
       <c r="C241" s="8"/>
       <c r="D241" s="6"/>
       <c r="E241" s="6"/>
@@ -6739,7 +6739,7 @@
       <c r="A242" s="6">
         <v>241</v>
       </c>
-      <c r="B242" s="13"/>
+      <c r="B242" s="10"/>
       <c r="C242" s="8"/>
       <c r="D242" s="6"/>
       <c r="E242" s="6"/>
@@ -6755,7 +6755,7 @@
       <c r="A243" s="6">
         <v>242</v>
       </c>
-      <c r="B243" s="13"/>
+      <c r="B243" s="10"/>
       <c r="C243" s="8"/>
       <c r="D243" s="6"/>
       <c r="E243" s="6"/>
@@ -6771,7 +6771,7 @@
       <c r="A244" s="6">
         <v>243</v>
       </c>
-      <c r="B244" s="13"/>
+      <c r="B244" s="10"/>
       <c r="C244" s="8"/>
       <c r="D244" s="6"/>
       <c r="E244" s="6"/>
@@ -6787,7 +6787,7 @@
       <c r="A245" s="6">
         <v>244</v>
       </c>
-      <c r="B245" s="13"/>
+      <c r="B245" s="10"/>
       <c r="C245" s="8"/>
       <c r="D245" s="6"/>
       <c r="E245" s="6"/>
@@ -6803,7 +6803,7 @@
       <c r="A246" s="6">
         <v>245</v>
       </c>
-      <c r="B246" s="13"/>
+      <c r="B246" s="10"/>
       <c r="C246" s="8"/>
       <c r="D246" s="6"/>
       <c r="E246" s="6"/>
@@ -6819,7 +6819,7 @@
       <c r="A247" s="6">
         <v>246</v>
       </c>
-      <c r="B247" s="13"/>
+      <c r="B247" s="10"/>
       <c r="C247" s="8"/>
       <c r="D247" s="6"/>
       <c r="E247" s="6"/>
@@ -6835,7 +6835,7 @@
       <c r="A248" s="6">
         <v>247</v>
       </c>
-      <c r="B248" s="13"/>
+      <c r="B248" s="10"/>
       <c r="C248" s="8"/>
       <c r="D248" s="6"/>
       <c r="E248" s="6"/>
@@ -6851,7 +6851,7 @@
       <c r="A249" s="6">
         <v>248</v>
       </c>
-      <c r="B249" s="13"/>
+      <c r="B249" s="10"/>
       <c r="C249" s="8"/>
       <c r="D249" s="6"/>
       <c r="E249" s="6"/>
@@ -6867,7 +6867,7 @@
       <c r="A250" s="6">
         <v>249</v>
       </c>
-      <c r="B250" s="13"/>
+      <c r="B250" s="10"/>
       <c r="C250" s="8"/>
       <c r="D250" s="6"/>
       <c r="E250" s="6"/>
@@ -6883,7 +6883,7 @@
       <c r="A251" s="6">
         <v>250</v>
       </c>
-      <c r="B251" s="13"/>
+      <c r="B251" s="10"/>
       <c r="C251" s="8"/>
       <c r="D251" s="6"/>
       <c r="E251" s="6"/>
@@ -6899,7 +6899,7 @@
       <c r="A252" s="6">
         <v>251</v>
       </c>
-      <c r="B252" s="13"/>
+      <c r="B252" s="10"/>
       <c r="C252" s="8"/>
       <c r="D252" s="6"/>
       <c r="E252" s="6"/>
@@ -6915,7 +6915,7 @@
       <c r="A253" s="6">
         <v>252</v>
       </c>
-      <c r="B253" s="13"/>
+      <c r="B253" s="10"/>
       <c r="C253" s="8"/>
       <c r="D253" s="6"/>
       <c r="E253" s="6"/>
@@ -6931,7 +6931,7 @@
       <c r="A254" s="6">
         <v>253</v>
       </c>
-      <c r="B254" s="13"/>
+      <c r="B254" s="10"/>
       <c r="C254" s="8"/>
       <c r="D254" s="6"/>
       <c r="E254" s="6"/>
@@ -6947,7 +6947,7 @@
       <c r="A255" s="6">
         <v>254</v>
       </c>
-      <c r="B255" s="13"/>
+      <c r="B255" s="10"/>
       <c r="C255" s="8"/>
       <c r="D255" s="6"/>
       <c r="E255" s="6"/>
@@ -6963,7 +6963,7 @@
       <c r="A256" s="6">
         <v>255</v>
       </c>
-      <c r="B256" s="13"/>
+      <c r="B256" s="10"/>
       <c r="C256" s="8"/>
       <c r="D256" s="6"/>
       <c r="E256" s="6"/>
@@ -6979,7 +6979,7 @@
       <c r="A257" s="6">
         <v>256</v>
       </c>
-      <c r="B257" s="13"/>
+      <c r="B257" s="10"/>
       <c r="C257" s="8"/>
       <c r="D257" s="6"/>
       <c r="E257" s="6"/>
@@ -6995,7 +6995,7 @@
       <c r="A258" s="6">
         <v>257</v>
       </c>
-      <c r="B258" s="13"/>
+      <c r="B258" s="10"/>
       <c r="C258" s="8"/>
       <c r="D258" s="6"/>
       <c r="E258" s="6"/>
@@ -7011,7 +7011,7 @@
       <c r="A259" s="6">
         <v>258</v>
       </c>
-      <c r="B259" s="13"/>
+      <c r="B259" s="10"/>
       <c r="C259" s="8"/>
       <c r="D259" s="6"/>
       <c r="E259" s="6"/>
@@ -7027,7 +7027,7 @@
       <c r="A260" s="6">
         <v>259</v>
       </c>
-      <c r="B260" s="13"/>
+      <c r="B260" s="10"/>
       <c r="C260" s="8"/>
       <c r="D260" s="6"/>
       <c r="E260" s="6"/>
@@ -7043,7 +7043,7 @@
       <c r="A261" s="6">
         <v>260</v>
       </c>
-      <c r="B261" s="13"/>
+      <c r="B261" s="10"/>
       <c r="C261" s="8"/>
       <c r="D261" s="6"/>
       <c r="E261" s="6"/>
@@ -7059,7 +7059,7 @@
       <c r="A262" s="6">
         <v>261</v>
       </c>
-      <c r="B262" s="13"/>
+      <c r="B262" s="10"/>
       <c r="C262" s="8"/>
       <c r="D262" s="6"/>
       <c r="E262" s="6"/>
@@ -7075,7 +7075,7 @@
       <c r="A263" s="6">
         <v>262</v>
       </c>
-      <c r="B263" s="13"/>
+      <c r="B263" s="10"/>
       <c r="C263" s="8"/>
       <c r="D263" s="6"/>
       <c r="E263" s="6"/>
@@ -7091,7 +7091,7 @@
       <c r="A264" s="6">
         <v>263</v>
       </c>
-      <c r="B264" s="13"/>
+      <c r="B264" s="10"/>
       <c r="C264" s="8"/>
       <c r="D264" s="6"/>
       <c r="E264" s="6"/>
@@ -7107,7 +7107,7 @@
       <c r="A265" s="6">
         <v>264</v>
       </c>
-      <c r="B265" s="13"/>
+      <c r="B265" s="10"/>
       <c r="C265" s="8"/>
       <c r="D265" s="6"/>
       <c r="E265" s="6"/>
@@ -7123,7 +7123,7 @@
       <c r="A266" s="6">
         <v>265</v>
       </c>
-      <c r="B266" s="13"/>
+      <c r="B266" s="10"/>
       <c r="C266" s="8"/>
       <c r="D266" s="6"/>
       <c r="E266" s="6"/>
@@ -7139,7 +7139,7 @@
       <c r="A267" s="6">
         <v>266</v>
       </c>
-      <c r="B267" s="13"/>
+      <c r="B267" s="10"/>
       <c r="C267" s="8"/>
       <c r="D267" s="6"/>
       <c r="E267" s="6"/>
@@ -7155,7 +7155,7 @@
       <c r="A268" s="6">
         <v>267</v>
       </c>
-      <c r="B268" s="13"/>
+      <c r="B268" s="10"/>
       <c r="C268" s="8"/>
       <c r="D268" s="6"/>
       <c r="E268" s="6"/>
@@ -7171,7 +7171,7 @@
       <c r="A269" s="6">
         <v>268</v>
       </c>
-      <c r="B269" s="13"/>
+      <c r="B269" s="10"/>
       <c r="C269" s="8"/>
       <c r="D269" s="6"/>
       <c r="E269" s="6"/>
@@ -7187,7 +7187,7 @@
       <c r="A270" s="6">
         <v>269</v>
       </c>
-      <c r="B270" s="13"/>
+      <c r="B270" s="10"/>
       <c r="C270" s="8"/>
       <c r="D270" s="6"/>
       <c r="E270" s="6"/>
@@ -7203,7 +7203,7 @@
       <c r="A271" s="6">
         <v>270</v>
       </c>
-      <c r="B271" s="13"/>
+      <c r="B271" s="10"/>
       <c r="C271" s="8"/>
       <c r="D271" s="6"/>
       <c r="E271" s="6"/>
@@ -7219,7 +7219,7 @@
       <c r="A272" s="6">
         <v>271</v>
       </c>
-      <c r="B272" s="13"/>
+      <c r="B272" s="10"/>
       <c r="C272" s="8"/>
       <c r="D272" s="6"/>
       <c r="E272" s="6"/>
@@ -7235,7 +7235,7 @@
       <c r="A273" s="6">
         <v>272</v>
       </c>
-      <c r="B273" s="13"/>
+      <c r="B273" s="10"/>
       <c r="C273" s="8"/>
       <c r="D273" s="6"/>
       <c r="E273" s="6"/>
@@ -7251,7 +7251,7 @@
       <c r="A274" s="6">
         <v>273</v>
       </c>
-      <c r="B274" s="13"/>
+      <c r="B274" s="10"/>
       <c r="C274" s="8"/>
       <c r="D274" s="6"/>
       <c r="E274" s="6"/>
@@ -7267,7 +7267,7 @@
       <c r="A275" s="6">
         <v>274</v>
       </c>
-      <c r="B275" s="13"/>
+      <c r="B275" s="10"/>
       <c r="C275" s="8"/>
       <c r="D275" s="6"/>
       <c r="E275" s="6"/>
@@ -7283,7 +7283,7 @@
       <c r="A276" s="6">
         <v>275</v>
       </c>
-      <c r="B276" s="13"/>
+      <c r="B276" s="10"/>
       <c r="C276" s="8"/>
       <c r="D276" s="6"/>
       <c r="E276" s="6"/>
@@ -7299,7 +7299,7 @@
       <c r="A277" s="6">
         <v>276</v>
       </c>
-      <c r="B277" s="13"/>
+      <c r="B277" s="10"/>
       <c r="C277" s="8"/>
       <c r="D277" s="6"/>
       <c r="E277" s="6"/>
@@ -7315,7 +7315,7 @@
       <c r="A278" s="6">
         <v>277</v>
       </c>
-      <c r="B278" s="13"/>
+      <c r="B278" s="10"/>
       <c r="C278" s="8"/>
       <c r="D278" s="6"/>
       <c r="E278" s="6"/>
@@ -7331,7 +7331,7 @@
       <c r="A279" s="6">
         <v>278</v>
       </c>
-      <c r="B279" s="13"/>
+      <c r="B279" s="10"/>
       <c r="C279" s="8"/>
       <c r="D279" s="6"/>
       <c r="E279" s="6"/>
@@ -7347,7 +7347,7 @@
       <c r="A280" s="6">
         <v>279</v>
       </c>
-      <c r="B280" s="13"/>
+      <c r="B280" s="10"/>
       <c r="C280" s="8"/>
       <c r="D280" s="6"/>
       <c r="E280" s="6"/>
@@ -7363,7 +7363,7 @@
       <c r="A281" s="6">
         <v>280</v>
       </c>
-      <c r="B281" s="13"/>
+      <c r="B281" s="10"/>
       <c r="C281" s="8"/>
       <c r="D281" s="6"/>
       <c r="E281" s="6"/>
@@ -7379,7 +7379,7 @@
       <c r="A282" s="6">
         <v>281</v>
       </c>
-      <c r="B282" s="13"/>
+      <c r="B282" s="10"/>
       <c r="C282" s="8"/>
       <c r="D282" s="6"/>
       <c r="E282" s="6"/>
@@ -7395,7 +7395,7 @@
       <c r="A283" s="6">
         <v>282</v>
       </c>
-      <c r="B283" s="13"/>
+      <c r="B283" s="10"/>
       <c r="C283" s="8"/>
       <c r="D283" s="6"/>
       <c r="E283" s="6"/>
@@ -7411,7 +7411,7 @@
       <c r="A284" s="6">
         <v>283</v>
       </c>
-      <c r="B284" s="13"/>
+      <c r="B284" s="10"/>
       <c r="C284" s="8"/>
       <c r="D284" s="6"/>
       <c r="E284" s="6"/>
@@ -7427,7 +7427,7 @@
       <c r="A285" s="6">
         <v>284</v>
       </c>
-      <c r="B285" s="13"/>
+      <c r="B285" s="10"/>
       <c r="C285" s="8"/>
       <c r="D285" s="6"/>
       <c r="E285" s="6"/>
@@ -7443,7 +7443,7 @@
       <c r="A286" s="6">
         <v>285</v>
       </c>
-      <c r="B286" s="13"/>
+      <c r="B286" s="10"/>
       <c r="C286" s="8"/>
       <c r="D286" s="6"/>
       <c r="E286" s="6"/>
@@ -7459,7 +7459,7 @@
       <c r="A287" s="6">
         <v>286</v>
       </c>
-      <c r="B287" s="13"/>
+      <c r="B287" s="10"/>
       <c r="C287" s="8"/>
       <c r="D287" s="6"/>
       <c r="E287" s="6"/>
@@ -7475,7 +7475,7 @@
       <c r="A288" s="6">
         <v>287</v>
       </c>
-      <c r="B288" s="13"/>
+      <c r="B288" s="10"/>
       <c r="C288" s="8"/>
       <c r="D288" s="6"/>
       <c r="E288" s="6"/>
@@ -7491,7 +7491,7 @@
       <c r="A289" s="6">
         <v>288</v>
       </c>
-      <c r="B289" s="13"/>
+      <c r="B289" s="10"/>
       <c r="C289" s="8"/>
       <c r="D289" s="6"/>
       <c r="E289" s="6"/>
@@ -7507,7 +7507,7 @@
       <c r="A290" s="6">
         <v>289</v>
       </c>
-      <c r="B290" s="13"/>
+      <c r="B290" s="10"/>
       <c r="C290" s="8"/>
       <c r="D290" s="6"/>
       <c r="E290" s="6"/>
@@ -7523,7 +7523,7 @@
       <c r="A291" s="6">
         <v>290</v>
       </c>
-      <c r="B291" s="13"/>
+      <c r="B291" s="10"/>
       <c r="C291" s="8"/>
       <c r="D291" s="6"/>
       <c r="E291" s="6"/>
@@ -7539,7 +7539,7 @@
       <c r="A292" s="6">
         <v>291</v>
       </c>
-      <c r="B292" s="13"/>
+      <c r="B292" s="10"/>
       <c r="C292" s="8"/>
       <c r="D292" s="6"/>
       <c r="E292" s="6"/>
@@ -7555,7 +7555,7 @@
       <c r="A293" s="6">
         <v>292</v>
       </c>
-      <c r="B293" s="13"/>
+      <c r="B293" s="10"/>
       <c r="C293" s="8"/>
       <c r="D293" s="6"/>
       <c r="E293" s="6"/>
@@ -7571,7 +7571,7 @@
       <c r="A294" s="6">
         <v>293</v>
       </c>
-      <c r="B294" s="13"/>
+      <c r="B294" s="10"/>
       <c r="C294" s="8"/>
       <c r="D294" s="6"/>
       <c r="E294" s="6"/>
@@ -7587,7 +7587,7 @@
       <c r="A295" s="6">
         <v>294</v>
       </c>
-      <c r="B295" s="13"/>
+      <c r="B295" s="10"/>
       <c r="C295" s="8"/>
       <c r="D295" s="6"/>
       <c r="E295" s="6"/>
@@ -7603,7 +7603,7 @@
       <c r="A296" s="6">
         <v>295</v>
       </c>
-      <c r="B296" s="13"/>
+      <c r="B296" s="10"/>
       <c r="C296" s="8"/>
       <c r="D296" s="6"/>
       <c r="E296" s="6"/>
@@ -7619,7 +7619,7 @@
       <c r="A297" s="6">
         <v>296</v>
       </c>
-      <c r="B297" s="13"/>
+      <c r="B297" s="10"/>
       <c r="C297" s="8"/>
       <c r="D297" s="6"/>
       <c r="E297" s="6"/>
@@ -7635,7 +7635,7 @@
       <c r="A298" s="6">
         <v>297</v>
       </c>
-      <c r="B298" s="13"/>
+      <c r="B298" s="10"/>
       <c r="C298" s="8"/>
       <c r="D298" s="6"/>
       <c r="E298" s="6"/>
@@ -7651,7 +7651,7 @@
       <c r="A299" s="6">
         <v>298</v>
       </c>
-      <c r="B299" s="13"/>
+      <c r="B299" s="10"/>
       <c r="C299" s="8"/>
       <c r="D299" s="6"/>
       <c r="E299" s="6"/>
@@ -7667,7 +7667,7 @@
       <c r="A300" s="6">
         <v>299</v>
       </c>
-      <c r="B300" s="13"/>
+      <c r="B300" s="10"/>
       <c r="C300" s="8"/>
       <c r="D300" s="6"/>
       <c r="E300" s="6"/>
@@ -7683,7 +7683,7 @@
       <c r="A301" s="6">
         <v>300</v>
       </c>
-      <c r="B301" s="13"/>
+      <c r="B301" s="10"/>
       <c r="C301" s="8"/>
       <c r="D301" s="6"/>
       <c r="E301" s="6"/>
@@ -7699,7 +7699,7 @@
       <c r="A302" s="6">
         <v>301</v>
       </c>
-      <c r="B302" s="13"/>
+      <c r="B302" s="10"/>
       <c r="C302" s="8"/>
       <c r="D302" s="6"/>
       <c r="E302" s="6"/>
@@ -7715,7 +7715,7 @@
       <c r="A303" s="6">
         <v>302</v>
       </c>
-      <c r="B303" s="13"/>
+      <c r="B303" s="10"/>
       <c r="C303" s="8"/>
       <c r="D303" s="6"/>
       <c r="E303" s="6"/>
@@ -7731,7 +7731,7 @@
       <c r="A304" s="6">
         <v>303</v>
       </c>
-      <c r="B304" s="13"/>
+      <c r="B304" s="10"/>
       <c r="C304" s="8"/>
       <c r="D304" s="6"/>
       <c r="E304" s="6"/>
@@ -7747,7 +7747,7 @@
       <c r="A305" s="6">
         <v>304</v>
       </c>
-      <c r="B305" s="13"/>
+      <c r="B305" s="10"/>
       <c r="C305" s="8"/>
       <c r="D305" s="6"/>
       <c r="E305" s="6"/>
@@ -7763,7 +7763,7 @@
       <c r="A306" s="6">
         <v>305</v>
       </c>
-      <c r="B306" s="13"/>
+      <c r="B306" s="10"/>
       <c r="C306" s="8"/>
       <c r="D306" s="6"/>
       <c r="E306" s="6"/>
@@ -7779,7 +7779,7 @@
       <c r="A307" s="6">
         <v>306</v>
       </c>
-      <c r="B307" s="13"/>
+      <c r="B307" s="10"/>
       <c r="C307" s="8"/>
       <c r="D307" s="6"/>
       <c r="E307" s="6"/>
@@ -7795,7 +7795,7 @@
       <c r="A308" s="6">
         <v>307</v>
       </c>
-      <c r="B308" s="13"/>
+      <c r="B308" s="10"/>
       <c r="C308" s="8"/>
       <c r="D308" s="6"/>
       <c r="E308" s="6"/>
@@ -7811,7 +7811,7 @@
       <c r="A309" s="6">
         <v>308</v>
       </c>
-      <c r="B309" s="13"/>
+      <c r="B309" s="10"/>
       <c r="C309" s="8"/>
       <c r="D309" s="6"/>
       <c r="E309" s="6"/>
@@ -7827,7 +7827,7 @@
       <c r="A310" s="6">
         <v>309</v>
       </c>
-      <c r="B310" s="13"/>
+      <c r="B310" s="10"/>
       <c r="C310" s="8"/>
       <c r="D310" s="6"/>
       <c r="E310" s="6"/>
@@ -7843,7 +7843,7 @@
       <c r="A311" s="6">
         <v>310</v>
       </c>
-      <c r="B311" s="13"/>
+      <c r="B311" s="10"/>
       <c r="C311" s="8"/>
       <c r="D311" s="6"/>
       <c r="E311" s="6"/>
@@ -7859,7 +7859,7 @@
       <c r="A312" s="6">
         <v>311</v>
       </c>
-      <c r="B312" s="13"/>
+      <c r="B312" s="10"/>
       <c r="C312" s="8"/>
       <c r="D312" s="6"/>
       <c r="E312" s="6"/>
@@ -7875,7 +7875,7 @@
       <c r="A313" s="6">
         <v>312</v>
       </c>
-      <c r="B313" s="13"/>
+      <c r="B313" s="10"/>
       <c r="C313" s="8"/>
       <c r="D313" s="6"/>
       <c r="E313" s="6"/>
@@ -7891,7 +7891,7 @@
       <c r="A314" s="6">
         <v>313</v>
       </c>
-      <c r="B314" s="13"/>
+      <c r="B314" s="10"/>
       <c r="C314" s="8"/>
       <c r="D314" s="6"/>
       <c r="E314" s="6"/>
@@ -7907,7 +7907,7 @@
       <c r="A315" s="6">
         <v>314</v>
       </c>
-      <c r="B315" s="13"/>
+      <c r="B315" s="10"/>
       <c r="C315" s="8"/>
       <c r="D315" s="6"/>
       <c r="E315" s="6"/>
@@ -7923,7 +7923,7 @@
       <c r="A316" s="6">
         <v>315</v>
       </c>
-      <c r="B316" s="13"/>
+      <c r="B316" s="10"/>
       <c r="C316" s="8"/>
       <c r="D316" s="6"/>
       <c r="E316" s="6"/>
@@ -7939,7 +7939,7 @@
       <c r="A317" s="6">
         <v>316</v>
       </c>
-      <c r="B317" s="13"/>
+      <c r="B317" s="10"/>
       <c r="C317" s="8"/>
       <c r="D317" s="6"/>
       <c r="E317" s="6"/>
@@ -7955,7 +7955,7 @@
       <c r="A318" s="6">
         <v>317</v>
       </c>
-      <c r="B318" s="13"/>
+      <c r="B318" s="10"/>
       <c r="C318" s="8"/>
       <c r="D318" s="6"/>
       <c r="E318" s="6"/>
@@ -7971,7 +7971,7 @@
       <c r="A319" s="6">
         <v>318</v>
       </c>
-      <c r="B319" s="13"/>
+      <c r="B319" s="10"/>
       <c r="C319" s="8"/>
       <c r="D319" s="6"/>
       <c r="E319" s="6"/>
@@ -7987,7 +7987,7 @@
       <c r="A320" s="6">
         <v>319</v>
       </c>
-      <c r="B320" s="13"/>
+      <c r="B320" s="10"/>
       <c r="C320" s="8"/>
       <c r="D320" s="6"/>
       <c r="E320" s="6"/>
@@ -8003,7 +8003,7 @@
       <c r="A321" s="6">
         <v>320</v>
       </c>
-      <c r="B321" s="13"/>
+      <c r="B321" s="10"/>
       <c r="C321" s="8"/>
       <c r="D321" s="6"/>
       <c r="E321" s="6"/>
@@ -8019,7 +8019,7 @@
       <c r="A322" s="6">
         <v>321</v>
       </c>
-      <c r="B322" s="13"/>
+      <c r="B322" s="10"/>
       <c r="C322" s="8"/>
       <c r="D322" s="6"/>
       <c r="E322" s="6"/>
@@ -8035,7 +8035,7 @@
       <c r="A323" s="6">
         <v>322</v>
       </c>
-      <c r="B323" s="13"/>
+      <c r="B323" s="10"/>
       <c r="C323" s="8"/>
       <c r="D323" s="6"/>
       <c r="E323" s="6"/>
@@ -8051,7 +8051,7 @@
       <c r="A324" s="6">
         <v>323</v>
       </c>
-      <c r="B324" s="13"/>
+      <c r="B324" s="10"/>
       <c r="C324" s="8"/>
       <c r="D324" s="6"/>
       <c r="E324" s="6"/>
@@ -8067,7 +8067,7 @@
       <c r="A325" s="6">
         <v>324</v>
       </c>
-      <c r="B325" s="13"/>
+      <c r="B325" s="10"/>
       <c r="C325" s="8"/>
       <c r="D325" s="6"/>
       <c r="E325" s="6"/>
@@ -8083,7 +8083,7 @@
       <c r="A326" s="6">
         <v>325</v>
       </c>
-      <c r="B326" s="13"/>
+      <c r="B326" s="10"/>
       <c r="C326" s="8"/>
       <c r="D326" s="6"/>
       <c r="E326" s="6"/>
@@ -8099,7 +8099,7 @@
       <c r="A327" s="6">
         <v>326</v>
       </c>
-      <c r="B327" s="13"/>
+      <c r="B327" s="10"/>
       <c r="C327" s="8"/>
       <c r="D327" s="6"/>
       <c r="E327" s="6"/>
@@ -8115,7 +8115,7 @@
       <c r="A328" s="6">
         <v>327</v>
       </c>
-      <c r="B328" s="13"/>
+      <c r="B328" s="10"/>
       <c r="C328" s="8"/>
       <c r="D328" s="6"/>
       <c r="E328" s="6"/>
@@ -8131,7 +8131,7 @@
       <c r="A329" s="6">
         <v>328</v>
       </c>
-      <c r="B329" s="13"/>
+      <c r="B329" s="10"/>
       <c r="C329" s="8"/>
       <c r="D329" s="6"/>
       <c r="E329" s="6"/>
@@ -8147,7 +8147,7 @@
       <c r="A330" s="6">
         <v>329</v>
       </c>
-      <c r="B330" s="13"/>
+      <c r="B330" s="10"/>
       <c r="C330" s="8"/>
       <c r="D330" s="6"/>
       <c r="E330" s="6"/>
@@ -8163,7 +8163,7 @@
       <c r="A331" s="6">
         <v>330</v>
       </c>
-      <c r="B331" s="13"/>
+      <c r="B331" s="10"/>
       <c r="C331" s="8"/>
       <c r="D331" s="6"/>
       <c r="E331" s="6"/>
@@ -8179,7 +8179,7 @@
       <c r="A332" s="6">
         <v>331</v>
       </c>
-      <c r="B332" s="13"/>
+      <c r="B332" s="10"/>
       <c r="C332" s="8"/>
       <c r="D332" s="6"/>
       <c r="E332" s="6"/>
@@ -8195,7 +8195,7 @@
       <c r="A333" s="6">
         <v>332</v>
       </c>
-      <c r="B333" s="13"/>
+      <c r="B333" s="10"/>
       <c r="C333" s="8"/>
       <c r="D333" s="6"/>
       <c r="E333" s="6"/>
@@ -8211,7 +8211,7 @@
       <c r="A334" s="6">
         <v>333</v>
       </c>
-      <c r="B334" s="13"/>
+      <c r="B334" s="10"/>
       <c r="C334" s="8"/>
       <c r="D334" s="6"/>
       <c r="E334" s="6"/>
@@ -8227,7 +8227,7 @@
       <c r="A335" s="6">
         <v>334</v>
       </c>
-      <c r="B335" s="13"/>
+      <c r="B335" s="10"/>
       <c r="C335" s="8"/>
       <c r="D335" s="6"/>
       <c r="E335" s="6"/>
@@ -8243,7 +8243,7 @@
       <c r="A336" s="6">
         <v>335</v>
       </c>
-      <c r="B336" s="13"/>
+      <c r="B336" s="10"/>
       <c r="C336" s="8"/>
       <c r="D336" s="6"/>
       <c r="E336" s="6"/>
@@ -8259,7 +8259,7 @@
       <c r="A337" s="6">
         <v>336</v>
       </c>
-      <c r="B337" s="13"/>
+      <c r="B337" s="10"/>
       <c r="C337" s="8"/>
       <c r="D337" s="6"/>
       <c r="E337" s="6"/>
@@ -8275,7 +8275,7 @@
       <c r="A338" s="6">
         <v>337</v>
       </c>
-      <c r="B338" s="13"/>
+      <c r="B338" s="10"/>
       <c r="C338" s="8"/>
       <c r="D338" s="6"/>
       <c r="E338" s="6"/>
@@ -8291,7 +8291,7 @@
       <c r="A339" s="6">
         <v>338</v>
       </c>
-      <c r="B339" s="13"/>
+      <c r="B339" s="10"/>
       <c r="C339" s="8"/>
       <c r="D339" s="6"/>
       <c r="E339" s="6"/>
@@ -8307,7 +8307,7 @@
       <c r="A340" s="6">
         <v>339</v>
       </c>
-      <c r="B340" s="13"/>
+      <c r="B340" s="10"/>
       <c r="C340" s="8"/>
       <c r="D340" s="6"/>
       <c r="E340" s="6"/>
@@ -8323,7 +8323,7 @@
       <c r="A341" s="6">
         <v>340</v>
       </c>
-      <c r="B341" s="13"/>
+      <c r="B341" s="10"/>
       <c r="C341" s="8"/>
       <c r="D341" s="6"/>
       <c r="E341" s="6"/>
@@ -8339,7 +8339,7 @@
       <c r="A342" s="6">
         <v>341</v>
       </c>
-      <c r="B342" s="13"/>
+      <c r="B342" s="10"/>
       <c r="C342" s="8"/>
       <c r="D342" s="6"/>
       <c r="E342" s="6"/>
@@ -8355,7 +8355,7 @@
       <c r="A343" s="6">
         <v>342</v>
       </c>
-      <c r="B343" s="13"/>
+      <c r="B343" s="10"/>
       <c r="C343" s="8"/>
       <c r="D343" s="6"/>
       <c r="E343" s="6"/>
@@ -8371,7 +8371,7 @@
       <c r="A344" s="6">
         <v>343</v>
       </c>
-      <c r="B344" s="13"/>
+      <c r="B344" s="10"/>
       <c r="C344" s="8"/>
       <c r="D344" s="6"/>
       <c r="E344" s="6"/>
@@ -8387,7 +8387,7 @@
       <c r="A345" s="6">
         <v>344</v>
       </c>
-      <c r="B345" s="13"/>
+      <c r="B345" s="10"/>
       <c r="C345" s="8"/>
       <c r="D345" s="6"/>
       <c r="E345" s="6"/>
@@ -8403,7 +8403,7 @@
       <c r="A346" s="6">
         <v>345</v>
       </c>
-      <c r="B346" s="13"/>
+      <c r="B346" s="10"/>
       <c r="C346" s="8"/>
       <c r="D346" s="6"/>
       <c r="E346" s="6"/>
@@ -8419,7 +8419,7 @@
       <c r="A347" s="6">
         <v>346</v>
       </c>
-      <c r="B347" s="13"/>
+      <c r="B347" s="10"/>
       <c r="C347" s="8"/>
       <c r="D347" s="6"/>
       <c r="E347" s="6"/>
@@ -8435,7 +8435,7 @@
       <c r="A348" s="6">
         <v>347</v>
       </c>
-      <c r="B348" s="13"/>
+      <c r="B348" s="10"/>
       <c r="C348" s="8"/>
       <c r="D348" s="6"/>
       <c r="E348" s="6"/>
@@ -8451,7 +8451,7 @@
       <c r="A349" s="6">
         <v>348</v>
       </c>
-      <c r="B349" s="13"/>
+      <c r="B349" s="10"/>
       <c r="C349" s="8"/>
       <c r="D349" s="6"/>
       <c r="E349" s="6"/>
@@ -8467,7 +8467,7 @@
       <c r="A350" s="6">
         <v>349</v>
       </c>
-      <c r="B350" s="13"/>
+      <c r="B350" s="10"/>
       <c r="C350" s="8"/>
       <c r="D350" s="6"/>
       <c r="E350" s="6"/>
@@ -8483,7 +8483,7 @@
       <c r="A351" s="6">
         <v>350</v>
       </c>
-      <c r="B351" s="13"/>
+      <c r="B351" s="10"/>
       <c r="C351" s="8"/>
       <c r="D351" s="6"/>
       <c r="E351" s="6"/>
@@ -8499,7 +8499,7 @@
       <c r="A352" s="6">
         <v>351</v>
       </c>
-      <c r="B352" s="13"/>
+      <c r="B352" s="10"/>
       <c r="C352" s="8"/>
       <c r="D352" s="6"/>
       <c r="E352" s="6"/>
@@ -8515,7 +8515,7 @@
       <c r="A353" s="6">
         <v>352</v>
       </c>
-      <c r="B353" s="13"/>
+      <c r="B353" s="10"/>
       <c r="C353" s="8"/>
       <c r="D353" s="6"/>
       <c r="E353" s="6"/>
@@ -8531,7 +8531,7 @@
       <c r="A354" s="6">
         <v>353</v>
       </c>
-      <c r="B354" s="13"/>
+      <c r="B354" s="10"/>
       <c r="C354" s="8"/>
       <c r="D354" s="6"/>
       <c r="E354" s="6"/>
@@ -8547,7 +8547,7 @@
       <c r="A355" s="6">
         <v>354</v>
       </c>
-      <c r="B355" s="13"/>
+      <c r="B355" s="10"/>
       <c r="C355" s="8"/>
       <c r="D355" s="6"/>
       <c r="E355" s="6"/>
@@ -8563,7 +8563,7 @@
       <c r="A356" s="6">
         <v>355</v>
       </c>
-      <c r="B356" s="13"/>
+      <c r="B356" s="10"/>
       <c r="C356" s="8"/>
       <c r="D356" s="6"/>
       <c r="E356" s="6"/>
@@ -8579,7 +8579,7 @@
       <c r="A357" s="6">
         <v>356</v>
       </c>
-      <c r="B357" s="13"/>
+      <c r="B357" s="10"/>
       <c r="C357" s="8"/>
       <c r="D357" s="6"/>
       <c r="E357" s="6"/>
@@ -8595,7 +8595,7 @@
       <c r="A358" s="6">
         <v>357</v>
       </c>
-      <c r="B358" s="13"/>
+      <c r="B358" s="10"/>
       <c r="C358" s="8"/>
       <c r="D358" s="6"/>
       <c r="E358" s="6"/>
@@ -8611,7 +8611,7 @@
       <c r="A359" s="6">
         <v>358</v>
       </c>
-      <c r="B359" s="13"/>
+      <c r="B359" s="10"/>
       <c r="C359" s="8"/>
       <c r="D359" s="6"/>
       <c r="E359" s="6"/>
@@ -8627,7 +8627,7 @@
       <c r="A360" s="6">
         <v>359</v>
       </c>
-      <c r="B360" s="13"/>
+      <c r="B360" s="10"/>
       <c r="C360" s="8"/>
       <c r="D360" s="6"/>
       <c r="E360" s="6"/>
@@ -8643,7 +8643,7 @@
       <c r="A361" s="6">
         <v>360</v>
       </c>
-      <c r="B361" s="13"/>
+      <c r="B361" s="10"/>
       <c r="C361" s="8"/>
       <c r="D361" s="6"/>
       <c r="E361" s="6"/>
@@ -8659,7 +8659,7 @@
       <c r="A362" s="6">
         <v>361</v>
       </c>
-      <c r="B362" s="13"/>
+      <c r="B362" s="10"/>
       <c r="C362" s="8"/>
       <c r="D362" s="6"/>
       <c r="E362" s="6"/>
@@ -8675,7 +8675,7 @@
       <c r="A363" s="6">
         <v>362</v>
       </c>
-      <c r="B363" s="13"/>
+      <c r="B363" s="10"/>
       <c r="C363" s="8"/>
       <c r="D363" s="6"/>
       <c r="E363" s="6"/>
@@ -8691,7 +8691,7 @@
       <c r="A364" s="6">
         <v>363</v>
       </c>
-      <c r="B364" s="13"/>
+      <c r="B364" s="10"/>
       <c r="C364" s="8"/>
       <c r="D364" s="6"/>
       <c r="E364" s="6"/>
@@ -8707,7 +8707,7 @@
       <c r="A365" s="6">
         <v>364</v>
       </c>
-      <c r="B365" s="13"/>
+      <c r="B365" s="10"/>
       <c r="C365" s="8"/>
       <c r="D365" s="6"/>
       <c r="E365" s="6"/>
@@ -8723,7 +8723,7 @@
       <c r="A366" s="6">
         <v>365</v>
       </c>
-      <c r="B366" s="13"/>
+      <c r="B366" s="10"/>
       <c r="C366" s="8"/>
       <c r="D366" s="6"/>
       <c r="E366" s="6"/>
@@ -8739,7 +8739,7 @@
       <c r="A367" s="6">
         <v>366</v>
       </c>
-      <c r="B367" s="13"/>
+      <c r="B367" s="10"/>
       <c r="C367" s="8"/>
       <c r="D367" s="6"/>
       <c r="E367" s="6"/>
@@ -8755,7 +8755,7 @@
       <c r="A368" s="6">
         <v>367</v>
       </c>
-      <c r="B368" s="13"/>
+      <c r="B368" s="10"/>
       <c r="C368" s="8"/>
       <c r="D368" s="6"/>
       <c r="E368" s="6"/>
@@ -8771,7 +8771,7 @@
       <c r="A369" s="6">
         <v>368</v>
       </c>
-      <c r="B369" s="13"/>
+      <c r="B369" s="10"/>
       <c r="C369" s="8"/>
       <c r="D369" s="6"/>
       <c r="E369" s="6"/>
@@ -8787,7 +8787,7 @@
       <c r="A370" s="6">
         <v>369</v>
       </c>
-      <c r="B370" s="13"/>
+      <c r="B370" s="10"/>
       <c r="C370" s="8"/>
       <c r="D370" s="6"/>
       <c r="E370" s="6"/>
@@ -8803,7 +8803,7 @@
       <c r="A371" s="6">
         <v>370</v>
       </c>
-      <c r="B371" s="13"/>
+      <c r="B371" s="10"/>
       <c r="C371" s="8"/>
       <c r="D371" s="6"/>
       <c r="E371" s="6"/>
@@ -8819,7 +8819,7 @@
       <c r="A372" s="6">
         <v>371</v>
       </c>
-      <c r="B372" s="13"/>
+      <c r="B372" s="10"/>
       <c r="C372" s="8"/>
       <c r="D372" s="6"/>
       <c r="E372" s="6"/>
@@ -8835,7 +8835,7 @@
       <c r="A373" s="6">
         <v>372</v>
       </c>
-      <c r="B373" s="13"/>
+      <c r="B373" s="10"/>
       <c r="C373" s="8"/>
       <c r="D373" s="6"/>
       <c r="E373" s="6"/>
@@ -8851,7 +8851,7 @@
       <c r="A374" s="6">
         <v>373</v>
       </c>
-      <c r="B374" s="13"/>
+      <c r="B374" s="10"/>
       <c r="C374" s="8"/>
       <c r="D374" s="6"/>
       <c r="E374" s="6"/>
@@ -8867,7 +8867,7 @@
       <c r="A375" s="6">
         <v>374</v>
       </c>
-      <c r="B375" s="13"/>
+      <c r="B375" s="10"/>
       <c r="C375" s="8"/>
       <c r="D375" s="6"/>
       <c r="E375" s="6"/>
@@ -8883,7 +8883,7 @@
       <c r="A376" s="6">
         <v>375</v>
       </c>
-      <c r="B376" s="13"/>
+      <c r="B376" s="10"/>
       <c r="C376" s="8"/>
       <c r="D376" s="6"/>
       <c r="E376" s="6"/>
@@ -8899,7 +8899,7 @@
       <c r="A377" s="6">
         <v>376</v>
       </c>
-      <c r="B377" s="13"/>
+      <c r="B377" s="10"/>
       <c r="C377" s="8"/>
       <c r="D377" s="6"/>
       <c r="E377" s="6"/>
@@ -8915,7 +8915,7 @@
       <c r="A378" s="6">
         <v>377</v>
       </c>
-      <c r="B378" s="13"/>
+      <c r="B378" s="10"/>
       <c r="C378" s="8"/>
       <c r="D378" s="6"/>
       <c r="E378" s="6"/>
@@ -8931,7 +8931,7 @@
       <c r="A379" s="6">
         <v>378</v>
       </c>
-      <c r="B379" s="13"/>
+      <c r="B379" s="10"/>
       <c r="C379" s="8"/>
       <c r="D379" s="6"/>
       <c r="E379" s="6"/>
@@ -8947,7 +8947,7 @@
       <c r="A380" s="6">
         <v>379</v>
       </c>
-      <c r="B380" s="13"/>
+      <c r="B380" s="10"/>
       <c r="C380" s="8"/>
       <c r="D380" s="6"/>
       <c r="E380" s="6"/>
@@ -8963,7 +8963,7 @@
       <c r="A381" s="6">
         <v>380</v>
       </c>
-      <c r="B381" s="13"/>
+      <c r="B381" s="10"/>
       <c r="C381" s="8"/>
       <c r="D381" s="6"/>
       <c r="E381" s="6"/>
@@ -8979,7 +8979,7 @@
       <c r="A382" s="6">
         <v>381</v>
       </c>
-      <c r="B382" s="13"/>
+      <c r="B382" s="10"/>
       <c r="C382" s="8"/>
       <c r="D382" s="6"/>
       <c r="E382" s="6"/>
@@ -8995,7 +8995,7 @@
       <c r="A383" s="6">
         <v>382</v>
       </c>
-      <c r="B383" s="13"/>
+      <c r="B383" s="10"/>
       <c r="C383" s="8"/>
       <c r="D383" s="6"/>
       <c r="E383" s="6"/>
@@ -9011,7 +9011,7 @@
       <c r="A384" s="6">
         <v>383</v>
       </c>
-      <c r="B384" s="13"/>
+      <c r="B384" s="10"/>
       <c r="C384" s="8"/>
       <c r="D384" s="6"/>
       <c r="E384" s="6"/>
@@ -9027,7 +9027,7 @@
       <c r="A385" s="6">
         <v>384</v>
       </c>
-      <c r="B385" s="13"/>
+      <c r="B385" s="10"/>
       <c r="C385" s="8"/>
       <c r="D385" s="6"/>
       <c r="E385" s="6"/>
@@ -9043,7 +9043,7 @@
       <c r="A386" s="6">
         <v>385</v>
       </c>
-      <c r="B386" s="13"/>
+      <c r="B386" s="10"/>
       <c r="C386" s="8"/>
       <c r="D386" s="6"/>
       <c r="E386" s="6"/>
@@ -9059,7 +9059,7 @@
       <c r="A387" s="6">
         <v>386</v>
       </c>
-      <c r="B387" s="13"/>
+      <c r="B387" s="10"/>
       <c r="C387" s="8"/>
       <c r="D387" s="6"/>
       <c r="E387" s="6"/>
@@ -9075,7 +9075,7 @@
       <c r="A388" s="6">
         <v>387</v>
       </c>
-      <c r="B388" s="13"/>
+      <c r="B388" s="10"/>
       <c r="C388" s="8"/>
       <c r="D388" s="6"/>
       <c r="E388" s="6"/>
@@ -9091,7 +9091,7 @@
       <c r="A389" s="6">
         <v>388</v>
       </c>
-      <c r="B389" s="13"/>
+      <c r="B389" s="10"/>
       <c r="C389" s="8"/>
       <c r="D389" s="6"/>
       <c r="E389" s="6"/>
@@ -9107,7 +9107,7 @@
       <c r="A390" s="6">
         <v>389</v>
       </c>
-      <c r="B390" s="13"/>
+      <c r="B390" s="10"/>
       <c r="C390" s="8"/>
       <c r="D390" s="6"/>
       <c r="E390" s="6"/>
@@ -9123,7 +9123,7 @@
       <c r="A391" s="6">
         <v>390</v>
       </c>
-      <c r="B391" s="13"/>
+      <c r="B391" s="10"/>
       <c r="C391" s="8"/>
       <c r="D391" s="6"/>
       <c r="E391" s="6"/>
@@ -9139,7 +9139,7 @@
       <c r="A392" s="6">
         <v>391</v>
       </c>
-      <c r="B392" s="13"/>
+      <c r="B392" s="10"/>
       <c r="C392" s="8"/>
       <c r="D392" s="6"/>
       <c r="E392" s="6"/>
@@ -9155,7 +9155,7 @@
       <c r="A393" s="6">
         <v>392</v>
       </c>
-      <c r="B393" s="13"/>
+      <c r="B393" s="10"/>
       <c r="C393" s="8"/>
       <c r="D393" s="6"/>
       <c r="E393" s="6"/>
@@ -9171,7 +9171,7 @@
       <c r="A394" s="6">
         <v>393</v>
       </c>
-      <c r="B394" s="13"/>
+      <c r="B394" s="10"/>
       <c r="C394" s="8"/>
       <c r="D394" s="6"/>
       <c r="E394" s="6"/>
@@ -9187,7 +9187,7 @@
       <c r="A395" s="6">
         <v>394</v>
       </c>
-      <c r="B395" s="13"/>
+      <c r="B395" s="10"/>
       <c r="C395" s="8"/>
       <c r="D395" s="6"/>
       <c r="E395" s="6"/>
@@ -9203,7 +9203,7 @@
       <c r="A396" s="6">
         <v>395</v>
       </c>
-      <c r="B396" s="13"/>
+      <c r="B396" s="10"/>
       <c r="C396" s="8"/>
       <c r="D396" s="6"/>
       <c r="E396" s="6"/>
@@ -9219,7 +9219,7 @@
       <c r="A397" s="6">
         <v>396</v>
       </c>
-      <c r="B397" s="13"/>
+      <c r="B397" s="10"/>
       <c r="C397" s="8"/>
       <c r="D397" s="6"/>
       <c r="E397" s="6"/>
@@ -9235,7 +9235,7 @@
       <c r="A398" s="6">
         <v>397</v>
       </c>
-      <c r="B398" s="13"/>
+      <c r="B398" s="10"/>
       <c r="C398" s="8"/>
       <c r="D398" s="6"/>
       <c r="E398" s="6"/>
@@ -9251,7 +9251,7 @@
       <c r="A399" s="6">
         <v>398</v>
       </c>
-      <c r="B399" s="13"/>
+      <c r="B399" s="10"/>
       <c r="C399" s="8"/>
       <c r="D399" s="6"/>
       <c r="E399" s="6"/>
@@ -9267,7 +9267,7 @@
       <c r="A400" s="6">
         <v>399</v>
       </c>
-      <c r="B400" s="13"/>
+      <c r="B400" s="10"/>
       <c r="C400" s="8"/>
       <c r="D400" s="6"/>
       <c r="E400" s="6"/>
@@ -9283,7 +9283,7 @@
       <c r="A401" s="6">
         <v>400</v>
       </c>
-      <c r="B401" s="13"/>
+      <c r="B401" s="10"/>
       <c r="C401" s="8"/>
       <c r="D401" s="6"/>
       <c r="E401" s="6"/>
@@ -9299,7 +9299,7 @@
       <c r="A402" s="6">
         <v>401</v>
       </c>
-      <c r="B402" s="13"/>
+      <c r="B402" s="10"/>
       <c r="C402" s="8"/>
       <c r="D402" s="6"/>
       <c r="E402" s="6"/>
@@ -9315,7 +9315,7 @@
       <c r="A403" s="6">
         <v>402</v>
       </c>
-      <c r="B403" s="13"/>
+      <c r="B403" s="10"/>
       <c r="C403" s="8"/>
       <c r="D403" s="6"/>
       <c r="E403" s="6"/>
@@ -9331,7 +9331,7 @@
       <c r="A404" s="6">
         <v>403</v>
       </c>
-      <c r="B404" s="13"/>
+      <c r="B404" s="10"/>
       <c r="C404" s="8"/>
       <c r="D404" s="6"/>
       <c r="E404" s="6"/>
@@ -9347,7 +9347,7 @@
       <c r="A405" s="6">
         <v>404</v>
       </c>
-      <c r="B405" s="13"/>
+      <c r="B405" s="10"/>
       <c r="C405" s="8"/>
       <c r="D405" s="6"/>
       <c r="E405" s="6"/>
@@ -9363,7 +9363,7 @@
       <c r="A406" s="6">
         <v>405</v>
       </c>
-      <c r="B406" s="13"/>
+      <c r="B406" s="10"/>
       <c r="C406" s="8"/>
       <c r="D406" s="6"/>
       <c r="E406" s="6"/>
@@ -9376,11 +9376,11 @@
       </c>
     </row>
     <row r="407" spans="1:9">
-      <c r="A407" s="10" t="s">
+      <c r="A407" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B407" s="11"/>
-      <c r="C407" s="12"/>
+      <c r="B407" s="12"/>
+      <c r="C407" s="13"/>
       <c r="D407" s="9">
         <f t="shared" ref="D407:I407" si="10">SUM(D5:D406)</f>
         <v>0</v>
